--- a/results/descriptive stats/Descriptives.xlsx
+++ b/results/descriptive stats/Descriptives.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG Asia</t>
   </si>
   <si>
     <t xml:space="preserve">NatGas</t>
@@ -4670,43 +4673,43 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1485</v>
+        <v>3.45</v>
       </c>
       <c r="C98" t="n">
-        <v>1.3277</v>
+        <v>3.57625</v>
       </c>
       <c r="D98" t="n">
-        <v>1.388125</v>
+        <v>3.79</v>
       </c>
       <c r="E98" t="n">
-        <v>1.52534375</v>
+        <v>3.8875</v>
       </c>
       <c r="F98" t="n">
-        <v>1.848</v>
+        <v>3.98</v>
       </c>
       <c r="G98" t="n">
-        <v>1.45075347222222</v>
+        <v>3.74375</v>
       </c>
       <c r="H98" t="n">
-        <v>1.388125</v>
+        <v>3.79</v>
       </c>
       <c r="I98" t="n">
-        <v>1.43</v>
+        <v>3.45</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0474754627204334</v>
+        <v>0.03696875</v>
       </c>
       <c r="K98" t="n">
-        <v>0.217888647525366</v>
+        <v>0.192272592950737</v>
       </c>
       <c r="L98" t="n">
-        <v>0.713059548294315</v>
+        <v>-0.373969322440352</v>
       </c>
       <c r="M98" t="n">
-        <v>2.38810575020726</v>
+        <v>1.74687248472611</v>
       </c>
       <c r="N98" t="s">
         <v>17</v>
@@ -4714,43 +4717,43 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B99" t="n">
-        <v>1.18</v>
+        <v>3.21</v>
       </c>
       <c r="C99" t="n">
-        <v>1.428</v>
+        <v>3.4775</v>
       </c>
       <c r="D99" t="n">
-        <v>1.63735</v>
+        <v>3.62</v>
       </c>
       <c r="E99" t="n">
-        <v>2.1191875</v>
+        <v>3.7675</v>
       </c>
       <c r="F99" t="n">
-        <v>2.4164</v>
+        <v>3.82</v>
       </c>
       <c r="G99" t="n">
-        <v>1.75067916666667</v>
+        <v>3.5975</v>
       </c>
       <c r="H99" t="n">
-        <v>1.63735</v>
+        <v>3.62</v>
       </c>
       <c r="I99" t="n">
-        <v>1.4405</v>
+        <v>3.61</v>
       </c>
       <c r="J99" t="n">
-        <v>0.176040987935606</v>
+        <v>0.0375659090909091</v>
       </c>
       <c r="K99" t="n">
-        <v>0.419572387003251</v>
+        <v>0.193819269142439</v>
       </c>
       <c r="L99" t="n">
-        <v>0.244853489687868</v>
+        <v>-0.622833048199915</v>
       </c>
       <c r="M99" t="n">
-        <v>1.68095903967284</v>
+        <v>2.34056162758521</v>
       </c>
       <c r="N99" t="s">
         <v>17</v>
@@ -4758,43 +4761,43 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7355</v>
+        <v>3.07</v>
       </c>
       <c r="C100" t="n">
-        <v>2.0211</v>
+        <v>3.1475</v>
       </c>
       <c r="D100" t="n">
-        <v>2.1263</v>
+        <v>3.24</v>
       </c>
       <c r="E100" t="n">
-        <v>2.2636875</v>
+        <v>3.4225</v>
       </c>
       <c r="F100" t="n">
-        <v>2.3321</v>
+        <v>3.6</v>
       </c>
       <c r="G100" t="n">
-        <v>2.11425</v>
+        <v>3.285</v>
       </c>
       <c r="H100" t="n">
-        <v>2.1263</v>
+        <v>3.24</v>
       </c>
       <c r="I100" t="n">
-        <v>1.9464</v>
+        <v>3.11</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0316025186363636</v>
+        <v>0.0318636363636364</v>
       </c>
       <c r="K100" t="n">
-        <v>0.177770972423407</v>
+        <v>0.178503883329289</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.578731993493203</v>
+        <v>0.518797264352513</v>
       </c>
       <c r="M100" t="n">
-        <v>2.72311265375216</v>
+        <v>1.95311714872375</v>
       </c>
       <c r="N100" t="s">
         <v>17</v>
@@ -4802,43 +4805,43 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B101" t="n">
-        <v>1.48</v>
+        <v>3.32</v>
       </c>
       <c r="C101" t="n">
-        <v>1.61740625</v>
+        <v>3.4025</v>
       </c>
       <c r="D101" t="n">
-        <v>1.9158</v>
+        <v>3.495</v>
       </c>
       <c r="E101" t="n">
-        <v>2.06225</v>
+        <v>3.7325</v>
       </c>
       <c r="F101" t="n">
-        <v>2.739</v>
+        <v>3.85</v>
       </c>
       <c r="G101" t="n">
-        <v>1.914875</v>
+        <v>3.55666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1.9158</v>
+        <v>3.495</v>
       </c>
       <c r="I101" t="n">
-        <v>2.384</v>
+        <v>3.38</v>
       </c>
       <c r="J101" t="n">
-        <v>0.141437119431818</v>
+        <v>0.0382969696969697</v>
       </c>
       <c r="K101" t="n">
-        <v>0.376081267057824</v>
+        <v>0.195696115692084</v>
       </c>
       <c r="L101" t="n">
-        <v>0.816009491895506</v>
+        <v>0.351766432523047</v>
       </c>
       <c r="M101" t="n">
-        <v>2.94743286458667</v>
+        <v>1.56012759505373</v>
       </c>
       <c r="N101" t="s">
         <v>17</v>
@@ -4846,43 +4849,43 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B102" t="n">
-        <v>1.4325</v>
+        <v>3.59</v>
       </c>
       <c r="C102" t="n">
-        <v>1.52074375</v>
+        <v>3.79</v>
       </c>
       <c r="D102" t="n">
-        <v>1.626875</v>
+        <v>3.815</v>
       </c>
       <c r="E102" t="n">
-        <v>1.6845</v>
+        <v>3.9125</v>
       </c>
       <c r="F102" t="n">
-        <v>2.6724</v>
+        <v>4.41</v>
       </c>
       <c r="G102" t="n">
-        <v>1.704475</v>
+        <v>3.9025</v>
       </c>
       <c r="H102" t="n">
-        <v>1.626875</v>
+        <v>3.815</v>
       </c>
       <c r="I102" t="n">
-        <v>1.485125</v>
+        <v>3.81</v>
       </c>
       <c r="J102" t="n">
-        <v>0.114607536022727</v>
+        <v>0.0568931818181819</v>
       </c>
       <c r="K102" t="n">
-        <v>0.338537348047047</v>
+        <v>0.238522916756822</v>
       </c>
       <c r="L102" t="n">
-        <v>2.15420642905434</v>
+        <v>1.16907897564422</v>
       </c>
       <c r="M102" t="n">
-        <v>6.7605885560692</v>
+        <v>3.29630229207182</v>
       </c>
       <c r="N102" t="s">
         <v>17</v>
@@ -4890,43 +4893,43 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B103" t="n">
-        <v>1.831625</v>
+        <v>3.43</v>
       </c>
       <c r="C103" t="n">
-        <v>2.248825</v>
+        <v>3.5</v>
       </c>
       <c r="D103" t="n">
-        <v>2.524875</v>
+        <v>3.66</v>
       </c>
       <c r="E103" t="n">
-        <v>2.97069375</v>
+        <v>3.825</v>
       </c>
       <c r="F103" t="n">
-        <v>3.83325</v>
+        <v>4.4</v>
       </c>
       <c r="G103" t="n">
-        <v>2.68937083333333</v>
+        <v>3.76083333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>2.524875</v>
+        <v>3.66</v>
       </c>
       <c r="I103" t="n">
-        <v>2.934125</v>
+        <v>3.5</v>
       </c>
       <c r="J103" t="n">
-        <v>0.419932507367424</v>
+        <v>0.105826515151515</v>
       </c>
       <c r="K103" t="n">
-        <v>0.648021996052159</v>
+        <v>0.325309875582521</v>
       </c>
       <c r="L103" t="n">
-        <v>0.645167434167115</v>
+        <v>0.987489812127592</v>
       </c>
       <c r="M103" t="n">
-        <v>2.34557007617864</v>
+        <v>2.53743996128292</v>
       </c>
       <c r="N103" t="s">
         <v>17</v>
@@ -4934,43 +4937,43 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B104" t="n">
-        <v>1.892375</v>
+        <v>2.57</v>
       </c>
       <c r="C104" t="n">
-        <v>2.164</v>
+        <v>2.6325</v>
       </c>
       <c r="D104" t="n">
-        <v>2.2721125</v>
+        <v>2.665</v>
       </c>
       <c r="E104" t="n">
-        <v>2.87090625</v>
+        <v>2.7725</v>
       </c>
       <c r="F104" t="n">
-        <v>3.2791</v>
+        <v>3.46</v>
       </c>
       <c r="G104" t="n">
-        <v>2.46020625</v>
+        <v>2.75416666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>2.2721125</v>
+        <v>2.665</v>
       </c>
       <c r="I104" t="n">
-        <v>3.2791</v>
+        <v>2.67</v>
       </c>
       <c r="J104" t="n">
-        <v>0.205643997514205</v>
+        <v>0.0625356060606061</v>
       </c>
       <c r="K104" t="n">
-        <v>0.453479875533859</v>
+        <v>0.250071201981768</v>
       </c>
       <c r="L104" t="n">
-        <v>0.574249367983716</v>
+        <v>2.08382978433234</v>
       </c>
       <c r="M104" t="n">
-        <v>1.9307765362994</v>
+        <v>6.44167725490882</v>
       </c>
       <c r="N104" t="s">
         <v>17</v>
@@ -4978,43 +4981,43 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B105" t="n">
-        <v>1.72175</v>
+        <v>2.57</v>
       </c>
       <c r="C105" t="n">
-        <v>1.9528</v>
+        <v>2.67</v>
       </c>
       <c r="D105" t="n">
-        <v>2.12715</v>
+        <v>3.21</v>
       </c>
       <c r="E105" t="n">
-        <v>2.196875</v>
+        <v>3.9075</v>
       </c>
       <c r="F105" t="n">
-        <v>2.451875</v>
+        <v>4.43</v>
       </c>
       <c r="G105" t="n">
-        <v>2.08785625</v>
+        <v>3.3425</v>
       </c>
       <c r="H105" t="n">
-        <v>2.12715</v>
+        <v>3.21</v>
       </c>
       <c r="I105" t="n">
-        <v>2.1093</v>
+        <v>2.64</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0377549075142045</v>
+        <v>0.465184090909091</v>
       </c>
       <c r="K105" t="n">
-        <v>0.194306220986886</v>
+        <v>0.68204405349588</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.176282131156108</v>
+        <v>0.338829326363283</v>
       </c>
       <c r="M105" t="n">
-        <v>2.78850130440852</v>
+        <v>1.66389620382526</v>
       </c>
       <c r="N105" t="s">
         <v>17</v>
@@ -5022,43 +5025,43 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B106" t="n">
-        <v>1.7745</v>
+        <v>4.54</v>
       </c>
       <c r="C106" t="n">
-        <v>2.043725</v>
+        <v>4.8575</v>
       </c>
       <c r="D106" t="n">
-        <v>2.3037125</v>
+        <v>5.26</v>
       </c>
       <c r="E106" t="n">
-        <v>2.4138875</v>
+        <v>5.6</v>
       </c>
       <c r="F106" t="n">
-        <v>2.7865</v>
+        <v>5.92</v>
       </c>
       <c r="G106" t="n">
-        <v>2.26106041666667</v>
+        <v>5.235</v>
       </c>
       <c r="H106" t="n">
-        <v>2.3037125</v>
+        <v>5.26</v>
       </c>
       <c r="I106" t="n">
-        <v>1.8452</v>
+        <v>4.58</v>
       </c>
       <c r="J106" t="n">
-        <v>0.114310396074811</v>
+        <v>0.250245454545454</v>
       </c>
       <c r="K106" t="n">
-        <v>0.338098204779041</v>
+        <v>0.500245394327079</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.10054925797714</v>
+        <v>-0.14232234601419</v>
       </c>
       <c r="M106" t="n">
-        <v>2.00669856811037</v>
+        <v>1.66934637577318</v>
       </c>
       <c r="N106" t="s">
         <v>17</v>
@@ -5066,43 +5069,43 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40275</v>
+        <v>3.68</v>
       </c>
       <c r="C107" t="n">
-        <v>2.97184736875</v>
+        <v>4.645</v>
       </c>
       <c r="D107" t="n">
-        <v>4.13838636388889</v>
+        <v>4.76</v>
       </c>
       <c r="E107" t="n">
-        <v>5.03214772708333</v>
+        <v>4.9575</v>
       </c>
       <c r="F107" t="n">
-        <v>8.9135</v>
+        <v>5.11</v>
       </c>
       <c r="G107" t="n">
-        <v>4.30759930972222</v>
+        <v>4.66916666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>4.13838636388889</v>
+        <v>4.76</v>
       </c>
       <c r="I107" t="n">
-        <v>2.40275</v>
+        <v>4.98</v>
       </c>
       <c r="J107" t="n">
-        <v>3.15472699425362</v>
+        <v>0.187590151515152</v>
       </c>
       <c r="K107" t="n">
-        <v>1.77615511548221</v>
+        <v>0.433116787385517</v>
       </c>
       <c r="L107" t="n">
-        <v>1.40445199106908</v>
+        <v>-1.33096580866501</v>
       </c>
       <c r="M107" t="n">
-        <v>4.80019961274285</v>
+        <v>3.6651495688271</v>
       </c>
       <c r="N107" t="s">
         <v>17</v>
@@ -5110,43 +5113,43 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B108" t="n">
-        <v>2.19052631583333</v>
+        <v>3.57</v>
       </c>
       <c r="C108" t="n">
-        <v>2.45861556055555</v>
+        <v>3.975</v>
       </c>
       <c r="D108" t="n">
-        <v>3.41714285833333</v>
+        <v>4.525</v>
       </c>
       <c r="E108" t="n">
-        <v>5.17892045416666</v>
+        <v>4.7225</v>
       </c>
       <c r="F108" t="n">
-        <v>8.17285714166667</v>
+        <v>5.76</v>
       </c>
       <c r="G108" t="n">
-        <v>3.95899299131944</v>
+        <v>4.42666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>3.41714285833333</v>
+        <v>4.525</v>
       </c>
       <c r="I108" t="n">
-        <v>8.17285714166667</v>
+        <v>3.57</v>
       </c>
       <c r="J108" t="n">
-        <v>3.21753974948608</v>
+        <v>0.38109696969697</v>
       </c>
       <c r="K108" t="n">
-        <v>1.79375019149437</v>
+        <v>0.617330519006609</v>
       </c>
       <c r="L108" t="n">
-        <v>1.05783898061758</v>
+        <v>0.376094293303726</v>
       </c>
       <c r="M108" t="n">
-        <v>3.39689072745967</v>
+        <v>3.02695932004885</v>
       </c>
       <c r="N108" t="s">
         <v>17</v>
@@ -5154,43 +5157,43 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B109" t="n">
-        <v>2.25809523805556</v>
+        <v>4.67</v>
       </c>
       <c r="C109" t="n">
-        <v>3.021125</v>
+        <v>4.8025</v>
       </c>
       <c r="D109" t="n">
-        <v>3.32636363611111</v>
+        <v>4.97</v>
       </c>
       <c r="E109" t="n">
-        <v>3.68027631597222</v>
+        <v>5.0825</v>
       </c>
       <c r="F109" t="n">
-        <v>4.74761904722222</v>
+        <v>5.44</v>
       </c>
       <c r="G109" t="n">
-        <v>3.36086956652778</v>
+        <v>4.98083333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>3.32636363611111</v>
+        <v>4.97</v>
       </c>
       <c r="I109" t="n">
-        <v>2.25809523805556</v>
+        <v>5.01</v>
       </c>
       <c r="J109" t="n">
-        <v>0.521069224715472</v>
+        <v>0.0579537878787879</v>
       </c>
       <c r="K109" t="n">
-        <v>0.721851248329926</v>
+        <v>0.240735929762858</v>
       </c>
       <c r="L109" t="n">
-        <v>0.220335266218782</v>
+        <v>0.481872490032754</v>
       </c>
       <c r="M109" t="n">
-        <v>2.56779287790251</v>
+        <v>2.27426905649817</v>
       </c>
       <c r="N109" t="s">
         <v>17</v>
@@ -5198,43 +5201,43 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B110" t="n">
-        <v>4.49166666666667</v>
+        <v>5.14</v>
       </c>
       <c r="C110" t="n">
-        <v>4.89812111801242</v>
+        <v>5.425</v>
       </c>
       <c r="D110" t="n">
-        <v>5.36904761904762</v>
+        <v>5.805</v>
       </c>
       <c r="E110" t="n">
-        <v>5.85785714285714</v>
+        <v>6.465</v>
       </c>
       <c r="F110" t="n">
-        <v>7.86263157894737</v>
+        <v>6.94</v>
       </c>
       <c r="G110" t="n">
-        <v>5.50728239818915</v>
+        <v>5.89083333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>5.36904761904762</v>
+        <v>5.805</v>
       </c>
       <c r="I110" t="n">
-        <v>5.46142857142857</v>
+        <v>5.14</v>
       </c>
       <c r="J110" t="n">
-        <v>0.861203251381327</v>
+        <v>0.379390151515152</v>
       </c>
       <c r="K110" t="n">
-        <v>0.928010372453523</v>
+        <v>0.615946549235525</v>
       </c>
       <c r="L110" t="n">
-        <v>1.28204073595396</v>
+        <v>0.382284999349142</v>
       </c>
       <c r="M110" t="n">
-        <v>4.46417752708949</v>
+        <v>1.76487810189963</v>
       </c>
       <c r="N110" t="s">
         <v>17</v>
@@ -5242,43 +5245,43 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B111" t="n">
-        <v>5.16714285714286</v>
+        <v>5.82</v>
       </c>
       <c r="C111" t="n">
-        <v>5.40481719367589</v>
+        <v>6.5275</v>
       </c>
       <c r="D111" t="n">
-        <v>6.04276315789473</v>
+        <v>7.075</v>
       </c>
       <c r="E111" t="n">
-        <v>6.28410714285715</v>
+        <v>7.3425</v>
       </c>
       <c r="F111" t="n">
-        <v>6.58190476190476</v>
+        <v>8.11</v>
       </c>
       <c r="G111" t="n">
-        <v>5.90813802787601</v>
+        <v>7.0325</v>
       </c>
       <c r="H111" t="n">
-        <v>6.04276315789473</v>
+        <v>7.075</v>
       </c>
       <c r="I111" t="n">
-        <v>6.15052631578947</v>
+        <v>7.22</v>
       </c>
       <c r="J111" t="n">
-        <v>0.227757163461948</v>
+        <v>0.504565909090909</v>
       </c>
       <c r="K111" t="n">
-        <v>0.477239105126506</v>
+        <v>0.71032802921672</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.221931430743141</v>
+        <v>-0.101740065239671</v>
       </c>
       <c r="M111" t="n">
-        <v>1.58431338152543</v>
+        <v>2.16323662901161</v>
       </c>
       <c r="N111" t="s">
         <v>17</v>
@@ -5286,43 +5289,43 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B112" t="n">
-        <v>6.13842105263158</v>
+        <v>7.29</v>
       </c>
       <c r="C112" t="n">
-        <v>6.83504329004329</v>
+        <v>7.7325</v>
       </c>
       <c r="D112" t="n">
-        <v>7.40052272727273</v>
+        <v>7.925</v>
       </c>
       <c r="E112" t="n">
-        <v>10.8582595238095</v>
+        <v>8.5225</v>
       </c>
       <c r="F112" t="n">
-        <v>13.6338095238095</v>
+        <v>8.83</v>
       </c>
       <c r="G112" t="n">
-        <v>8.89467689241219</v>
+        <v>8.04916666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>7.40052272727273</v>
+        <v>7.925</v>
       </c>
       <c r="I112" t="n">
-        <v>6.152</v>
+        <v>7.34</v>
       </c>
       <c r="J112" t="n">
-        <v>7.96107532077683</v>
+        <v>0.275426515151515</v>
       </c>
       <c r="K112" t="n">
-        <v>2.82153775816962</v>
+        <v>0.524810932766759</v>
       </c>
       <c r="L112" t="n">
-        <v>0.651188643458524</v>
+        <v>-0.0229890413775648</v>
       </c>
       <c r="M112" t="n">
-        <v>1.82146343449534</v>
+        <v>1.69672242692328</v>
       </c>
       <c r="N112" t="s">
         <v>17</v>
@@ -5330,43 +5333,43 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B113" t="n">
-        <v>4.897</v>
+        <v>7.17</v>
       </c>
       <c r="C113" t="n">
-        <v>6.19601674641149</v>
+        <v>7.705</v>
       </c>
       <c r="D113" t="n">
-        <v>6.80475</v>
+        <v>8.35</v>
       </c>
       <c r="E113" t="n">
-        <v>7.22881578947369</v>
+        <v>8.7475</v>
       </c>
       <c r="F113" t="n">
-        <v>8.685</v>
+        <v>10.27</v>
       </c>
       <c r="G113" t="n">
-        <v>6.74034438492476</v>
+        <v>8.41083333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>6.80475</v>
+        <v>8.35</v>
       </c>
       <c r="I113" t="n">
-        <v>8.685</v>
+        <v>7.66</v>
       </c>
       <c r="J113" t="n">
-        <v>0.933561688737299</v>
+        <v>0.824862878787878</v>
       </c>
       <c r="K113" t="n">
-        <v>0.966209961000868</v>
+        <v>0.908219620349549</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0873181177575935</v>
+        <v>0.555555565217509</v>
       </c>
       <c r="M113" t="n">
-        <v>3.11596107824445</v>
+        <v>2.61145384188137</v>
       </c>
       <c r="N113" t="s">
         <v>17</v>
@@ -5374,43 +5377,43 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B114" t="n">
-        <v>6.06894736842105</v>
+        <v>7.38</v>
       </c>
       <c r="C114" t="n">
-        <v>6.49619021739131</v>
+        <v>10.5975</v>
       </c>
       <c r="D114" t="n">
-        <v>7.10775</v>
+        <v>11.89</v>
       </c>
       <c r="E114" t="n">
-        <v>7.41010714285714</v>
+        <v>13.19</v>
       </c>
       <c r="F114" t="n">
-        <v>8.00473684210526</v>
+        <v>14.08</v>
       </c>
       <c r="G114" t="n">
-        <v>6.98166280944456</v>
+        <v>11.5908333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>7.10775</v>
+        <v>11.89</v>
       </c>
       <c r="I114" t="n">
-        <v>6.5855</v>
+        <v>10.5</v>
       </c>
       <c r="J114" t="n">
-        <v>0.385829519064862</v>
+        <v>4.07239015151515</v>
       </c>
       <c r="K114" t="n">
-        <v>0.621151768141138</v>
+        <v>2.01801639029894</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.0210563496046089</v>
+        <v>-0.650368894271515</v>
       </c>
       <c r="M114" t="n">
-        <v>1.88168157879142</v>
+        <v>2.59667695851771</v>
       </c>
       <c r="N114" t="s">
         <v>17</v>
@@ -5418,43 +5421,43 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B115" t="n">
-        <v>5.83619047619048</v>
+        <v>5.83</v>
       </c>
       <c r="C115" t="n">
-        <v>7.39981121281465</v>
+        <v>6.415</v>
       </c>
       <c r="D115" t="n">
-        <v>8.39846428571428</v>
+        <v>7.51</v>
       </c>
       <c r="E115" t="n">
-        <v>10.4059090909091</v>
+        <v>8.5525</v>
       </c>
       <c r="F115" t="n">
-        <v>12.682380952381</v>
+        <v>9.16</v>
       </c>
       <c r="G115" t="n">
-        <v>8.85786823407333</v>
+        <v>7.49083333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>8.39846428571428</v>
+        <v>7.51</v>
       </c>
       <c r="I115" t="n">
-        <v>7.98285714285714</v>
+        <v>6.03</v>
       </c>
       <c r="J115" t="n">
-        <v>4.40961928536676</v>
+        <v>1.46948106060606</v>
       </c>
       <c r="K115" t="n">
-        <v>2.0999093517023</v>
+        <v>1.21222153940856</v>
       </c>
       <c r="L115" t="n">
-        <v>0.342378025791571</v>
+        <v>-0.051089777371681</v>
       </c>
       <c r="M115" t="n">
-        <v>2.05989742223758</v>
+        <v>1.37003352718631</v>
       </c>
       <c r="N115" t="s">
         <v>17</v>
@@ -5462,43 +5465,43 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B116" t="n">
-        <v>2.98619047619048</v>
+        <v>8.85</v>
       </c>
       <c r="C116" t="n">
-        <v>3.46641233766234</v>
+        <v>9.07</v>
       </c>
       <c r="D116" t="n">
-        <v>3.81575</v>
+        <v>9.31</v>
       </c>
       <c r="E116" t="n">
-        <v>4.12576555023923</v>
+        <v>9.6275</v>
       </c>
       <c r="F116" t="n">
-        <v>5.34363636363636</v>
+        <v>10.04</v>
       </c>
       <c r="G116" t="n">
-        <v>3.94574581339713</v>
+        <v>9.38083333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>3.81575</v>
+        <v>9.31</v>
       </c>
       <c r="I116" t="n">
-        <v>5.233</v>
+        <v>9.34</v>
       </c>
       <c r="J116" t="n">
-        <v>0.557071344471274</v>
+        <v>0.171244696969697</v>
       </c>
       <c r="K116" t="n">
-        <v>0.746372121981572</v>
+        <v>0.413817226526031</v>
       </c>
       <c r="L116" t="n">
-        <v>0.76193493782709</v>
+        <v>0.55036001874727</v>
       </c>
       <c r="M116" t="n">
-        <v>2.58298950849841</v>
+        <v>1.94272630496585</v>
       </c>
       <c r="N116" t="s">
         <v>17</v>
@@ -5506,43 +5509,43 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B117" t="n">
-        <v>3.43380952380952</v>
+        <v>10.81</v>
       </c>
       <c r="C117" t="n">
-        <v>3.99833333333333</v>
+        <v>13.8525</v>
       </c>
       <c r="D117" t="n">
-        <v>4.26829192546584</v>
+        <v>16.29</v>
       </c>
       <c r="E117" t="n">
-        <v>4.67141233766234</v>
+        <v>17.72</v>
       </c>
       <c r="F117" t="n">
-        <v>5.82421052631579</v>
+        <v>18.05</v>
       </c>
       <c r="G117" t="n">
-        <v>4.38612420296459</v>
+        <v>15.5533333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>4.26829192546584</v>
+        <v>16.29</v>
       </c>
       <c r="I117" t="n">
-        <v>5.82421052631579</v>
+        <v>16.29</v>
       </c>
       <c r="J117" t="n">
-        <v>0.452975589478534</v>
+        <v>6.83438787878788</v>
       </c>
       <c r="K117" t="n">
-        <v>0.673034612392657</v>
+        <v>2.61426622186568</v>
       </c>
       <c r="L117" t="n">
-        <v>0.782582224496854</v>
+        <v>-0.728765397676581</v>
       </c>
       <c r="M117" t="n">
-        <v>2.97740524598795</v>
+        <v>2.01734464665787</v>
       </c>
       <c r="N117" t="s">
         <v>17</v>
@@ -5550,43 +5553,43 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B118" t="n">
-        <v>3.16285714285714</v>
+        <v>16.71</v>
       </c>
       <c r="C118" t="n">
-        <v>3.80845238095238</v>
+        <v>17.4125</v>
       </c>
       <c r="D118" t="n">
-        <v>4.07300915331808</v>
+        <v>18.36</v>
       </c>
       <c r="E118" t="n">
-        <v>4.34098214285714</v>
+        <v>18.845</v>
       </c>
       <c r="F118" t="n">
-        <v>4.53738636363636</v>
+        <v>19.57</v>
       </c>
       <c r="G118" t="n">
-        <v>4.00000456448268</v>
+        <v>18.145</v>
       </c>
       <c r="H118" t="n">
-        <v>4.07300915331808</v>
+        <v>18.36</v>
       </c>
       <c r="I118" t="n">
-        <v>4.492</v>
+        <v>17.46</v>
       </c>
       <c r="J118" t="n">
-        <v>0.210938327496748</v>
+        <v>0.948172727272728</v>
       </c>
       <c r="K118" t="n">
-        <v>0.459280227635316</v>
+        <v>0.973741612170666</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.661696546213705</v>
+        <v>-0.055707440751421</v>
       </c>
       <c r="M118" t="n">
-        <v>2.24588866809224</v>
+        <v>1.72357976686248</v>
       </c>
       <c r="N118" t="s">
         <v>17</v>
@@ -5594,43 +5597,43 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B119" t="n">
-        <v>1.94875</v>
+        <v>16.49</v>
       </c>
       <c r="C119" t="n">
-        <v>2.45211038961039</v>
+        <v>16.97</v>
       </c>
       <c r="D119" t="n">
-        <v>2.75890891304348</v>
+        <v>17.35</v>
       </c>
       <c r="E119" t="n">
-        <v>3.04528618012422</v>
+        <v>17.72</v>
       </c>
       <c r="F119" t="n">
-        <v>3.5395</v>
+        <v>18.31</v>
       </c>
       <c r="G119" t="n">
-        <v>2.75244486257227</v>
+        <v>17.3391666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>2.75890891304348</v>
+        <v>17.35</v>
       </c>
       <c r="I119" t="n">
-        <v>2.67727</v>
+        <v>17.72</v>
       </c>
       <c r="J119" t="n">
-        <v>0.235473679091261</v>
+        <v>0.30228106060606</v>
       </c>
       <c r="K119" t="n">
-        <v>0.485256302474539</v>
+        <v>0.549800928160421</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0693674016615938</v>
+        <v>0.0944482967434082</v>
       </c>
       <c r="M119" t="n">
-        <v>2.08465137583212</v>
+        <v>1.89877456747191</v>
       </c>
       <c r="N119" t="s">
         <v>17</v>
@@ -5638,43 +5641,43 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B120" t="n">
-        <v>3.32714285714286</v>
+        <v>15.23</v>
       </c>
       <c r="C120" t="n">
-        <v>3.56755306818182</v>
+        <v>16.365</v>
       </c>
       <c r="D120" t="n">
-        <v>3.65163304347826</v>
+        <v>17.47</v>
       </c>
       <c r="E120" t="n">
-        <v>3.87901159090909</v>
+        <v>17.7</v>
       </c>
       <c r="F120" t="n">
-        <v>4.23593809523809</v>
+        <v>17.96</v>
       </c>
       <c r="G120" t="n">
-        <v>3.7257610989719</v>
+        <v>16.9975</v>
       </c>
       <c r="H120" t="n">
-        <v>3.65163304347826</v>
+        <v>17.47</v>
       </c>
       <c r="I120" t="n">
-        <v>3.32714285714286</v>
+        <v>17.76</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0919406114562906</v>
+        <v>0.859256818181819</v>
       </c>
       <c r="K120" t="n">
-        <v>0.303217102842651</v>
+        <v>0.926961066162878</v>
       </c>
       <c r="L120" t="n">
-        <v>0.332024286179044</v>
+        <v>-0.682464909426582</v>
       </c>
       <c r="M120" t="n">
-        <v>2.03703656967447</v>
+        <v>2.04815229476745</v>
       </c>
       <c r="N120" t="s">
         <v>17</v>
@@ -5682,43 +5685,43 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B121" t="n">
-        <v>3.40122272727273</v>
+        <v>8.79</v>
       </c>
       <c r="C121" t="n">
-        <v>3.90959642857143</v>
+        <v>9.38</v>
       </c>
       <c r="D121" t="n">
-        <v>4.33708157894737</v>
+        <v>10.155</v>
       </c>
       <c r="E121" t="n">
-        <v>4.65149523809523</v>
+        <v>11.5275</v>
       </c>
       <c r="F121" t="n">
-        <v>5.98421578947368</v>
+        <v>15.5</v>
       </c>
       <c r="G121" t="n">
-        <v>4.36964106276066</v>
+        <v>10.9583333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>4.33708157894737</v>
+        <v>10.155</v>
       </c>
       <c r="I121" t="n">
-        <v>4.70432380952381</v>
+        <v>15.5</v>
       </c>
       <c r="J121" t="n">
-        <v>0.459685722008754</v>
+        <v>4.99648787878788</v>
       </c>
       <c r="K121" t="n">
-        <v>0.678001269916771</v>
+        <v>2.23528250536434</v>
       </c>
       <c r="L121" t="n">
-        <v>0.920634608339646</v>
+        <v>1.0819769740894</v>
       </c>
       <c r="M121" t="n">
-        <v>3.7584603753649</v>
+        <v>2.73718639375527</v>
       </c>
       <c r="N121" t="s">
         <v>17</v>
@@ -5726,43 +5729,43 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B122" t="n">
-        <v>1.9228</v>
+        <v>6.68</v>
       </c>
       <c r="C122" t="n">
-        <v>2.51340470779221</v>
+        <v>7.0225</v>
       </c>
       <c r="D122" t="n">
-        <v>2.76612305194806</v>
+        <v>7.29</v>
       </c>
       <c r="E122" t="n">
-        <v>2.83211227272727</v>
+        <v>7.945</v>
       </c>
       <c r="F122" t="n">
-        <v>2.97414</v>
+        <v>8.46</v>
       </c>
       <c r="G122" t="n">
-        <v>2.61354691643883</v>
+        <v>7.43916666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>2.76612305194806</v>
+        <v>7.29</v>
       </c>
       <c r="I122" t="n">
-        <v>2.97414</v>
+        <v>8.46</v>
       </c>
       <c r="J122" t="n">
-        <v>0.111046077642304</v>
+        <v>0.334899242424243</v>
       </c>
       <c r="K122" t="n">
-        <v>0.33323576885188</v>
+        <v>0.578704797305364</v>
       </c>
       <c r="L122" t="n">
-        <v>-1.06946320723235</v>
+        <v>0.282499439895292</v>
       </c>
       <c r="M122" t="n">
-        <v>2.78452195185338</v>
+        <v>1.77230119335221</v>
       </c>
       <c r="N122" t="s">
         <v>17</v>
@@ -5770,43 +5773,43 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B123" t="n">
-        <v>1.70443181818182</v>
+        <v>5.52363636363636</v>
       </c>
       <c r="C123" t="n">
-        <v>1.94822119047619</v>
+        <v>5.716671875</v>
       </c>
       <c r="D123" t="n">
-        <v>2.53362613636363</v>
+        <v>6.60757763975155</v>
       </c>
       <c r="E123" t="n">
-        <v>2.83109953416149</v>
+        <v>8.88806818181818</v>
       </c>
       <c r="F123" t="n">
-        <v>3.5818380952381</v>
+        <v>10.7090476190476</v>
       </c>
       <c r="G123" t="n">
-        <v>2.49237307945836</v>
+        <v>7.24744465716952</v>
       </c>
       <c r="H123" t="n">
-        <v>2.53362613636363</v>
+        <v>6.60757763975155</v>
       </c>
       <c r="I123" t="n">
-        <v>2.27443157894737</v>
+        <v>9.17409090909091</v>
       </c>
       <c r="J123" t="n">
-        <v>0.31218932529011</v>
+        <v>3.37854774946685</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5587390493693</v>
+        <v>1.83808262857437</v>
       </c>
       <c r="L123" t="n">
-        <v>0.27599451686722</v>
+        <v>0.670652607020758</v>
       </c>
       <c r="M123" t="n">
-        <v>2.25551972384244</v>
+        <v>1.95432288523961</v>
       </c>
       <c r="N123" t="s">
         <v>17</v>
@@ -5814,43 +5817,43 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B124" t="n">
-        <v>2.79736</v>
+        <v>7.47523809523809</v>
       </c>
       <c r="C124" t="n">
-        <v>2.87359278656127</v>
+        <v>8.86708074534161</v>
       </c>
       <c r="D124" t="n">
-        <v>2.94950772727273</v>
+        <v>10.0039624505929</v>
       </c>
       <c r="E124" t="n">
-        <v>3.01498546052632</v>
+        <v>10.5008586956522</v>
       </c>
       <c r="F124" t="n">
-        <v>3.260785</v>
+        <v>11.6695652173913</v>
       </c>
       <c r="G124" t="n">
-        <v>2.96444926097358</v>
+        <v>9.79541477664846</v>
       </c>
       <c r="H124" t="n">
-        <v>2.94950772727273</v>
+        <v>10.0039624505929</v>
       </c>
       <c r="I124" t="n">
-        <v>3.260785</v>
+        <v>11.6695652173913</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0181655387123591</v>
+        <v>1.4595064221787</v>
       </c>
       <c r="K124" t="n">
-        <v>0.134779593085745</v>
+        <v>1.20810033613881</v>
       </c>
       <c r="L124" t="n">
-        <v>0.862188461643882</v>
+        <v>-0.391575445085398</v>
       </c>
       <c r="M124" t="n">
-        <v>2.98354959408327</v>
+        <v>2.35330185982121</v>
       </c>
       <c r="N124" t="s">
         <v>17</v>
@@ -5858,43 +5861,43 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B125" t="n">
-        <v>2.67210526315789</v>
+        <v>4.28022727272727</v>
       </c>
       <c r="C125" t="n">
-        <v>2.77861493506494</v>
+        <v>4.87978260869566</v>
       </c>
       <c r="D125" t="n">
-        <v>2.94912712215321</v>
+        <v>5.1625</v>
       </c>
       <c r="E125" t="n">
-        <v>3.43630517598344</v>
+        <v>5.68440464426878</v>
       </c>
       <c r="F125" t="n">
-        <v>4.135</v>
+        <v>8.28565217391304</v>
       </c>
       <c r="G125" t="n">
-        <v>3.1550970501022</v>
+        <v>5.44462424320848</v>
       </c>
       <c r="H125" t="n">
-        <v>2.94912712215321</v>
+        <v>5.1625</v>
       </c>
       <c r="I125" t="n">
-        <v>3.8804380952381</v>
+        <v>8.28565217391304</v>
       </c>
       <c r="J125" t="n">
-        <v>0.283681652537577</v>
+        <v>1.23156916302028</v>
       </c>
       <c r="K125" t="n">
-        <v>0.532617735845867</v>
+        <v>1.10976085848271</v>
       </c>
       <c r="L125" t="n">
-        <v>0.907434237571377</v>
+        <v>1.4090862630151</v>
       </c>
       <c r="M125" t="n">
-        <v>2.18229067368722</v>
+        <v>4.62640017140277</v>
       </c>
       <c r="N125" t="s">
         <v>17</v>
@@ -5902,43 +5905,43 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B126" t="n">
-        <v>2.22432272727273</v>
+        <v>2.03214285714286</v>
       </c>
       <c r="C126" t="n">
-        <v>2.35282608695652</v>
+        <v>2.24680830039526</v>
       </c>
       <c r="D126" t="n">
-        <v>2.60393181818182</v>
+        <v>3.45228896103897</v>
       </c>
       <c r="E126" t="n">
-        <v>2.66840277777778</v>
+        <v>5.21572628458498</v>
       </c>
       <c r="F126" t="n">
-        <v>3.07952380952381</v>
+        <v>11.6089130434783</v>
       </c>
       <c r="G126" t="n">
-        <v>2.56634599565724</v>
+        <v>4.36642399538867</v>
       </c>
       <c r="H126" t="n">
-        <v>2.60393181818182</v>
+        <v>3.45228896103897</v>
       </c>
       <c r="I126" t="n">
-        <v>3.07952380952381</v>
+        <v>4.91369565217391</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0716994161348797</v>
+        <v>7.8092574823601</v>
       </c>
       <c r="K126" t="n">
-        <v>0.267767466535574</v>
+        <v>2.79450487248817</v>
       </c>
       <c r="L126" t="n">
-        <v>0.442318577599919</v>
+        <v>1.52371587728509</v>
       </c>
       <c r="M126" t="n">
-        <v>2.29235443795783</v>
+        <v>4.72536083015693</v>
       </c>
       <c r="N126" t="s">
         <v>17</v>
@@ -5946,43 +5949,43 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B127" t="n">
-        <v>1.61281818181818</v>
+        <v>7.16875</v>
       </c>
       <c r="C127" t="n">
-        <v>1.74901785714286</v>
+        <v>10.4803720238095</v>
       </c>
       <c r="D127" t="n">
-        <v>1.91718045112782</v>
+        <v>13.791994047619</v>
       </c>
       <c r="E127" t="n">
-        <v>2.20246180555556</v>
+        <v>17.1036160714286</v>
       </c>
       <c r="F127" t="n">
-        <v>2.60870588235294</v>
+        <v>20.4152380952381</v>
       </c>
       <c r="G127" t="n">
-        <v>2.00959657217818</v>
+        <v>13.791994047619</v>
       </c>
       <c r="H127" t="n">
-        <v>1.91718045112782</v>
+        <v>13.791994047619</v>
       </c>
       <c r="I127" t="n">
-        <v>2.03047619047619</v>
+        <v>20.4152380952381</v>
       </c>
       <c r="J127" t="n">
-        <v>0.107873124324627</v>
+        <v>87.7347234286423</v>
       </c>
       <c r="K127" t="n">
-        <v>0.328440442583777</v>
+        <v>9.36668155904973</v>
       </c>
       <c r="L127" t="n">
-        <v>0.697816389362491</v>
+        <v>0.000000000000000195644623342927</v>
       </c>
       <c r="M127" t="n">
-        <v>2.19647595048292</v>
+        <v>1</v>
       </c>
       <c r="N127" t="s">
         <v>17</v>
@@ -5990,87 +5993,87 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="B128" t="n">
-        <v>2.66636842105263</v>
+        <v>1.1485</v>
       </c>
       <c r="C128" t="n">
-        <v>3.26047368421052</v>
+        <v>1.3277</v>
       </c>
       <c r="D128" t="n">
-        <v>3.85457894736842</v>
+        <v>1.388125</v>
       </c>
       <c r="E128" t="n">
-        <v>4.44868421052632</v>
+        <v>1.52534375</v>
       </c>
       <c r="F128" t="n">
-        <v>5.04278947368421</v>
+        <v>1.848</v>
       </c>
       <c r="G128" t="n">
-        <v>3.85457894736842</v>
+        <v>1.45075347222222</v>
       </c>
       <c r="H128" t="n">
-        <v>3.85457894736842</v>
+        <v>1.388125</v>
       </c>
       <c r="I128" t="n">
-        <v>2.66636842105263</v>
+        <v>1.43</v>
       </c>
       <c r="J128" t="n">
-        <v>2.82368850969529</v>
+        <v>0.0474754627204334</v>
       </c>
       <c r="K128" t="n">
-        <v>1.68038344127026</v>
+        <v>0.217888647525366</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.000000000000000529443999346733</v>
+        <v>0.713059548294315</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>2.38810575020726</v>
       </c>
       <c r="N128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B129" t="n">
-        <v>16.69</v>
+        <v>1.18</v>
       </c>
       <c r="C129" t="n">
-        <v>18.4275</v>
+        <v>1.428</v>
       </c>
       <c r="D129" t="n">
-        <v>22.54</v>
+        <v>1.63735</v>
       </c>
       <c r="E129" t="n">
-        <v>28.6075</v>
+        <v>2.1191875</v>
       </c>
       <c r="F129" t="n">
-        <v>36.13</v>
+        <v>2.4164</v>
       </c>
       <c r="G129" t="n">
-        <v>24.5175</v>
+        <v>1.75067916666667</v>
       </c>
       <c r="H129" t="n">
-        <v>22.54</v>
+        <v>1.63735</v>
       </c>
       <c r="I129" t="n">
-        <v>22.96</v>
+        <v>1.4405</v>
       </c>
       <c r="J129" t="n">
-        <v>45.3529659090909</v>
+        <v>0.176040987935606</v>
       </c>
       <c r="K129" t="n">
-        <v>6.73446107042656</v>
+        <v>0.419572387003251</v>
       </c>
       <c r="L129" t="n">
-        <v>0.509938414250619</v>
+        <v>0.244853489687868</v>
       </c>
       <c r="M129" t="n">
-        <v>1.83417581582166</v>
+        <v>1.68095903967284</v>
       </c>
       <c r="N129" t="s">
         <v>18</v>
@@ -6078,43 +6081,43 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B130" t="n">
-        <v>19.51</v>
+        <v>1.7355</v>
       </c>
       <c r="C130" t="n">
-        <v>20.4275</v>
+        <v>2.0211</v>
       </c>
       <c r="D130" t="n">
-        <v>21.38</v>
+        <v>2.1263</v>
       </c>
       <c r="E130" t="n">
-        <v>22.01</v>
+        <v>2.2636875</v>
       </c>
       <c r="F130" t="n">
-        <v>25.2</v>
+        <v>2.3321</v>
       </c>
       <c r="G130" t="n">
-        <v>21.5116666666667</v>
+        <v>2.11425</v>
       </c>
       <c r="H130" t="n">
-        <v>21.38</v>
+        <v>2.1263</v>
       </c>
       <c r="I130" t="n">
-        <v>25.2</v>
+        <v>1.9464</v>
       </c>
       <c r="J130" t="n">
-        <v>2.53650606060606</v>
+        <v>0.0316025186363636</v>
       </c>
       <c r="K130" t="n">
-        <v>1.59264122155809</v>
+        <v>0.177770972423407</v>
       </c>
       <c r="L130" t="n">
-        <v>0.956231011797859</v>
+        <v>-0.578731993493203</v>
       </c>
       <c r="M130" t="n">
-        <v>3.44755511756845</v>
+        <v>2.72311265375216</v>
       </c>
       <c r="N130" t="s">
         <v>18</v>
@@ -6122,43 +6125,43 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B131" t="n">
-        <v>18.76</v>
+        <v>1.48</v>
       </c>
       <c r="C131" t="n">
-        <v>19.3125</v>
+        <v>1.61740625</v>
       </c>
       <c r="D131" t="n">
-        <v>20.65</v>
+        <v>1.9158</v>
       </c>
       <c r="E131" t="n">
-        <v>21.71</v>
+        <v>2.06225</v>
       </c>
       <c r="F131" t="n">
-        <v>22.37</v>
+        <v>2.739</v>
       </c>
       <c r="G131" t="n">
-        <v>20.555</v>
+        <v>1.914875</v>
       </c>
       <c r="H131" t="n">
-        <v>20.65</v>
+        <v>1.9158</v>
       </c>
       <c r="I131" t="n">
-        <v>18.76</v>
+        <v>2.384</v>
       </c>
       <c r="J131" t="n">
-        <v>1.67262727272727</v>
+        <v>0.141437119431818</v>
       </c>
       <c r="K131" t="n">
-        <v>1.29330092118086</v>
+        <v>0.376081267057824</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.145964370154367</v>
+        <v>0.816009491895506</v>
       </c>
       <c r="M131" t="n">
-        <v>1.54262419308471</v>
+        <v>2.94743286458667</v>
       </c>
       <c r="N131" t="s">
         <v>18</v>
@@ -6166,43 +6169,43 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B132" t="n">
-        <v>14.51</v>
+        <v>1.4325</v>
       </c>
       <c r="C132" t="n">
-        <v>17.7725</v>
+        <v>1.52074375</v>
       </c>
       <c r="D132" t="n">
-        <v>18.61</v>
+        <v>1.626875</v>
       </c>
       <c r="E132" t="n">
-        <v>19.965</v>
+        <v>1.6845</v>
       </c>
       <c r="F132" t="n">
-        <v>20.32</v>
+        <v>2.6724</v>
       </c>
       <c r="G132" t="n">
-        <v>18.455</v>
+        <v>1.704475</v>
       </c>
       <c r="H132" t="n">
-        <v>18.61</v>
+        <v>1.626875</v>
       </c>
       <c r="I132" t="n">
-        <v>19.06</v>
+        <v>1.485125</v>
       </c>
       <c r="J132" t="n">
-        <v>2.95404545454545</v>
+        <v>0.114607536022727</v>
       </c>
       <c r="K132" t="n">
-        <v>1.71873367760845</v>
+        <v>0.338537348047047</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.898234090415426</v>
+        <v>2.15420642905434</v>
       </c>
       <c r="M132" t="n">
-        <v>3.26520621331955</v>
+        <v>6.7605885560692</v>
       </c>
       <c r="N132" t="s">
         <v>18</v>
@@ -6210,43 +6213,43 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B133" t="n">
-        <v>14.65</v>
+        <v>1.831625</v>
       </c>
       <c r="C133" t="n">
-        <v>16.0525</v>
+        <v>2.248825</v>
       </c>
       <c r="D133" t="n">
-        <v>17.575</v>
+        <v>2.524875</v>
       </c>
       <c r="E133" t="n">
-        <v>18.1475</v>
+        <v>2.97069375</v>
       </c>
       <c r="F133" t="n">
-        <v>19.65</v>
+        <v>3.83325</v>
       </c>
       <c r="G133" t="n">
-        <v>17.1833333333333</v>
+        <v>2.68937083333333</v>
       </c>
       <c r="H133" t="n">
-        <v>17.575</v>
+        <v>2.524875</v>
       </c>
       <c r="I133" t="n">
-        <v>15.01</v>
+        <v>2.934125</v>
       </c>
       <c r="J133" t="n">
-        <v>2.75133333333333</v>
+        <v>0.419932507367424</v>
       </c>
       <c r="K133" t="n">
-        <v>1.65871436158651</v>
+        <v>0.648021996052159</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.34185278529803</v>
+        <v>0.645167434167115</v>
       </c>
       <c r="M133" t="n">
-        <v>1.97128992085662</v>
+        <v>2.34557007617864</v>
       </c>
       <c r="N133" t="s">
         <v>18</v>
@@ -6254,43 +6257,43 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B134" t="n">
-        <v>17.3</v>
+        <v>1.892375</v>
       </c>
       <c r="C134" t="n">
-        <v>18.01</v>
+        <v>2.164</v>
       </c>
       <c r="D134" t="n">
-        <v>18.32</v>
+        <v>2.2721125</v>
       </c>
       <c r="E134" t="n">
-        <v>18.67</v>
+        <v>2.87090625</v>
       </c>
       <c r="F134" t="n">
-        <v>19.91</v>
+        <v>3.2791</v>
       </c>
       <c r="G134" t="n">
-        <v>18.4316666666667</v>
+        <v>2.46020625</v>
       </c>
       <c r="H134" t="n">
-        <v>18.32</v>
+        <v>2.2721125</v>
       </c>
       <c r="I134" t="n">
-        <v>18.55</v>
+        <v>3.2791</v>
       </c>
       <c r="J134" t="n">
-        <v>0.646469696969697</v>
+        <v>0.205643997514205</v>
       </c>
       <c r="K134" t="n">
-        <v>0.804033392944408</v>
+        <v>0.453479875533859</v>
       </c>
       <c r="L134" t="n">
-        <v>0.539519215920792</v>
+        <v>0.574249367983716</v>
       </c>
       <c r="M134" t="n">
-        <v>2.48859168725582</v>
+        <v>1.9307765362994</v>
       </c>
       <c r="N134" t="s">
         <v>18</v>
@@ -6298,43 +6301,43 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B135" t="n">
-        <v>18.87</v>
+        <v>1.72175</v>
       </c>
       <c r="C135" t="n">
-        <v>21.0125</v>
+        <v>1.9528</v>
       </c>
       <c r="D135" t="n">
-        <v>21.625</v>
+        <v>2.12715</v>
       </c>
       <c r="E135" t="n">
-        <v>23.71</v>
+        <v>2.196875</v>
       </c>
       <c r="F135" t="n">
-        <v>25.37</v>
+        <v>2.451875</v>
       </c>
       <c r="G135" t="n">
-        <v>22.1316666666667</v>
+        <v>2.08785625</v>
       </c>
       <c r="H135" t="n">
-        <v>21.625</v>
+        <v>2.12715</v>
       </c>
       <c r="I135" t="n">
-        <v>18.87</v>
+        <v>2.1093</v>
       </c>
       <c r="J135" t="n">
-        <v>4.63581515151515</v>
+        <v>0.0377549075142045</v>
       </c>
       <c r="K135" t="n">
-        <v>2.1530943201623</v>
+        <v>0.194306220986886</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.0175837371315125</v>
+        <v>-0.176282131156108</v>
       </c>
       <c r="M135" t="n">
-        <v>1.84185226160438</v>
+        <v>2.78850130440852</v>
       </c>
       <c r="N135" t="s">
         <v>18</v>
@@ -6342,43 +6345,43 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B136" t="n">
-        <v>18.3</v>
+        <v>1.7745</v>
       </c>
       <c r="C136" t="n">
-        <v>19.69</v>
+        <v>2.043725</v>
       </c>
       <c r="D136" t="n">
-        <v>20.01</v>
+        <v>2.3037125</v>
       </c>
       <c r="E136" t="n">
-        <v>21.0475</v>
+        <v>2.4138875</v>
       </c>
       <c r="F136" t="n">
-        <v>25.17</v>
+        <v>2.7865</v>
       </c>
       <c r="G136" t="n">
-        <v>20.585</v>
+        <v>2.26106041666667</v>
       </c>
       <c r="H136" t="n">
-        <v>20.01</v>
+        <v>2.3037125</v>
       </c>
       <c r="I136" t="n">
-        <v>25.17</v>
+        <v>1.8452</v>
       </c>
       <c r="J136" t="n">
-        <v>3.1363</v>
+        <v>0.114310396074811</v>
       </c>
       <c r="K136" t="n">
-        <v>1.77096019153452</v>
+        <v>0.338098204779041</v>
       </c>
       <c r="L136" t="n">
-        <v>1.42980785762155</v>
+        <v>-0.10054925797714</v>
       </c>
       <c r="M136" t="n">
-        <v>4.86142992669889</v>
+        <v>2.00669856811037</v>
       </c>
       <c r="N136" t="s">
         <v>18</v>
@@ -6386,43 +6389,43 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B137" t="n">
-        <v>11.31</v>
+        <v>2.40275</v>
       </c>
       <c r="C137" t="n">
-        <v>13.6325</v>
+        <v>2.97184736875</v>
       </c>
       <c r="D137" t="n">
-        <v>14.66</v>
+        <v>4.13838636388889</v>
       </c>
       <c r="E137" t="n">
-        <v>15.1625</v>
+        <v>5.03214772708333</v>
       </c>
       <c r="F137" t="n">
-        <v>16.7</v>
+        <v>8.9135</v>
       </c>
       <c r="G137" t="n">
-        <v>14.4158333333333</v>
+        <v>4.30759930972222</v>
       </c>
       <c r="H137" t="n">
-        <v>14.66</v>
+        <v>4.13838636388889</v>
       </c>
       <c r="I137" t="n">
-        <v>16.7</v>
+        <v>2.40275</v>
       </c>
       <c r="J137" t="n">
-        <v>2.10509924242424</v>
+        <v>3.15472699425362</v>
       </c>
       <c r="K137" t="n">
-        <v>1.45089601364958</v>
+        <v>1.77615511548221</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.520475888010742</v>
+        <v>1.40445199106908</v>
       </c>
       <c r="M137" t="n">
-        <v>3.00888032453632</v>
+        <v>4.80019961274285</v>
       </c>
       <c r="N137" t="s">
         <v>18</v>
@@ -6430,43 +6433,43 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B138" t="n">
-        <v>11.99</v>
+        <v>2.19052631583333</v>
       </c>
       <c r="C138" t="n">
-        <v>16.5125</v>
+        <v>2.45861556055555</v>
       </c>
       <c r="D138" t="n">
-        <v>18.82</v>
+        <v>3.41714285833333</v>
       </c>
       <c r="E138" t="n">
-        <v>23.085</v>
+        <v>5.17892045416666</v>
       </c>
       <c r="F138" t="n">
-        <v>26.02</v>
+        <v>8.17285714166667</v>
       </c>
       <c r="G138" t="n">
-        <v>19.1658333333333</v>
+        <v>3.95899299131944</v>
       </c>
       <c r="H138" t="n">
-        <v>18.82</v>
+        <v>3.41714285833333</v>
       </c>
       <c r="I138" t="n">
-        <v>12.34</v>
+        <v>8.17285714166667</v>
       </c>
       <c r="J138" t="n">
-        <v>22.5898265151515</v>
+        <v>3.21753974948608</v>
       </c>
       <c r="K138" t="n">
-        <v>4.75287560484719</v>
+        <v>1.79375019149437</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.123922470366757</v>
+        <v>1.05783898061758</v>
       </c>
       <c r="M138" t="n">
-        <v>1.82118111498025</v>
+        <v>3.39689072745967</v>
       </c>
       <c r="N138" t="s">
         <v>18</v>
@@ -6474,43 +6477,43 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B139" t="n">
-        <v>25.78</v>
+        <v>2.25809523805556</v>
       </c>
       <c r="C139" t="n">
-        <v>28.685</v>
+        <v>3.021125</v>
       </c>
       <c r="D139" t="n">
-        <v>29.945</v>
+        <v>3.32636363611111</v>
       </c>
       <c r="E139" t="n">
-        <v>32.1575</v>
+        <v>3.68027631597222</v>
       </c>
       <c r="F139" t="n">
-        <v>34.37</v>
+        <v>4.74761904722222</v>
       </c>
       <c r="G139" t="n">
-        <v>30.315</v>
+        <v>3.36086956652778</v>
       </c>
       <c r="H139" t="n">
-        <v>29.945</v>
+        <v>3.32636363611111</v>
       </c>
       <c r="I139" t="n">
-        <v>27.24</v>
+        <v>2.25809523805556</v>
       </c>
       <c r="J139" t="n">
-        <v>7.05657272727272</v>
+        <v>0.521069224715472</v>
       </c>
       <c r="K139" t="n">
-        <v>2.65642103727416</v>
+        <v>0.721851248329926</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0155167367945357</v>
+        <v>0.220335266218782</v>
       </c>
       <c r="M139" t="n">
-        <v>2.04989800467935</v>
+        <v>2.56779287790251</v>
       </c>
       <c r="N139" t="s">
         <v>18</v>
@@ -6518,43 +6521,43 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B140" t="n">
-        <v>19.31</v>
+        <v>4.49166666666667</v>
       </c>
       <c r="C140" t="n">
-        <v>24.7375</v>
+        <v>4.89812111801242</v>
       </c>
       <c r="D140" t="n">
-        <v>27.305</v>
+        <v>5.36904761904762</v>
       </c>
       <c r="E140" t="n">
-        <v>27.8225</v>
+        <v>5.85785714285714</v>
       </c>
       <c r="F140" t="n">
-        <v>29.57</v>
+        <v>7.86263157894737</v>
       </c>
       <c r="G140" t="n">
-        <v>25.8691666666667</v>
+        <v>5.50728239818915</v>
       </c>
       <c r="H140" t="n">
-        <v>27.305</v>
+        <v>5.36904761904762</v>
       </c>
       <c r="I140" t="n">
-        <v>29.52</v>
+        <v>5.46142857142857</v>
       </c>
       <c r="J140" t="n">
-        <v>12.7718992424242</v>
+        <v>0.861203251381327</v>
       </c>
       <c r="K140" t="n">
-        <v>3.57377940595446</v>
+        <v>0.928010372453523</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.925996235185395</v>
+        <v>1.28204073595396</v>
       </c>
       <c r="M140" t="n">
-        <v>2.45350732551188</v>
+        <v>4.46417752708949</v>
       </c>
       <c r="N140" t="s">
         <v>18</v>
@@ -6562,43 +6565,43 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B141" t="n">
-        <v>19.69</v>
+        <v>5.16714285714286</v>
       </c>
       <c r="C141" t="n">
-        <v>25.2275</v>
+        <v>5.40481719367589</v>
       </c>
       <c r="D141" t="n">
-        <v>26.74</v>
+        <v>6.04276315789473</v>
       </c>
       <c r="E141" t="n">
-        <v>28.49</v>
+        <v>6.28410714285715</v>
       </c>
       <c r="F141" t="n">
-        <v>29.67</v>
+        <v>6.58190476190476</v>
       </c>
       <c r="G141" t="n">
-        <v>26.1158333333333</v>
+        <v>5.90813802787601</v>
       </c>
       <c r="H141" t="n">
-        <v>26.74</v>
+        <v>6.04276315789473</v>
       </c>
       <c r="I141" t="n">
-        <v>19.69</v>
+        <v>6.15052631578947</v>
       </c>
       <c r="J141" t="n">
-        <v>10.1580992424242</v>
+        <v>0.227757163461948</v>
       </c>
       <c r="K141" t="n">
-        <v>3.18717731581163</v>
+        <v>0.477239105126506</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.917856204456343</v>
+        <v>-0.221931430743141</v>
       </c>
       <c r="M141" t="n">
-        <v>2.81261518722067</v>
+        <v>1.58431338152543</v>
       </c>
       <c r="N141" t="s">
         <v>18</v>
@@ -6606,43 +6609,43 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B142" t="n">
-        <v>28.2018181818182</v>
+        <v>6.13842105263158</v>
       </c>
       <c r="C142" t="n">
-        <v>29.8495998023716</v>
+        <v>6.83504329004329</v>
       </c>
       <c r="D142" t="n">
-        <v>30.8791739130435</v>
+        <v>7.40052272727273</v>
       </c>
       <c r="E142" t="n">
-        <v>32.3628260869565</v>
+        <v>10.8582595238095</v>
       </c>
       <c r="F142" t="n">
-        <v>35.8525</v>
+        <v>13.6338095238095</v>
       </c>
       <c r="G142" t="n">
-        <v>31.1332671356421</v>
+        <v>8.89467689241219</v>
       </c>
       <c r="H142" t="n">
-        <v>30.8791739130435</v>
+        <v>7.40052272727273</v>
       </c>
       <c r="I142" t="n">
-        <v>32.9152173913043</v>
+        <v>6.152</v>
       </c>
       <c r="J142" t="n">
-        <v>5.11515057761373</v>
+        <v>7.96107532077683</v>
       </c>
       <c r="K142" t="n">
-        <v>2.26166986485953</v>
+        <v>2.82153775816962</v>
       </c>
       <c r="L142" t="n">
-        <v>0.449506825619936</v>
+        <v>0.651188643458524</v>
       </c>
       <c r="M142" t="n">
-        <v>2.72682061379802</v>
+        <v>1.82146343449534</v>
       </c>
       <c r="N142" t="s">
         <v>18</v>
@@ -6650,43 +6653,43 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B143" t="n">
-        <v>34.1240909090909</v>
+        <v>4.897</v>
       </c>
       <c r="C143" t="n">
-        <v>36.7381669960474</v>
+        <v>6.19601674641149</v>
       </c>
       <c r="D143" t="n">
-        <v>40.488538961039</v>
+        <v>6.80475</v>
       </c>
       <c r="E143" t="n">
-        <v>45.1532954545455</v>
+        <v>7.22881578947369</v>
       </c>
       <c r="F143" t="n">
-        <v>53.2461904761905</v>
+        <v>8.685</v>
       </c>
       <c r="G143" t="n">
-        <v>41.4292050081561</v>
+        <v>6.74034438492476</v>
       </c>
       <c r="H143" t="n">
-        <v>40.488538961039</v>
+        <v>6.80475</v>
       </c>
       <c r="I143" t="n">
-        <v>34.1240909090909</v>
+        <v>8.685</v>
       </c>
       <c r="J143" t="n">
-        <v>34.6104736318499</v>
+        <v>0.933561688737299</v>
       </c>
       <c r="K143" t="n">
-        <v>5.88306668599379</v>
+        <v>0.966209961000868</v>
       </c>
       <c r="L143" t="n">
-        <v>0.560843301875568</v>
+        <v>0.0873181177575935</v>
       </c>
       <c r="M143" t="n">
-        <v>2.36312095381848</v>
+        <v>3.11596107824445</v>
       </c>
       <c r="N143" t="s">
         <v>18</v>
@@ -6694,43 +6697,43 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B144" t="n">
-        <v>46.8942857142857</v>
+        <v>6.06894736842105</v>
       </c>
       <c r="C144" t="n">
-        <v>52.1987337662337</v>
+        <v>6.49619021739131</v>
       </c>
       <c r="D144" t="n">
-        <v>57.3440909090909</v>
+        <v>7.10775</v>
       </c>
       <c r="E144" t="n">
-        <v>60.1112932900433</v>
+        <v>7.41010714285714</v>
       </c>
       <c r="F144" t="n">
-        <v>65.6304545454545</v>
+        <v>8.00473684210526</v>
       </c>
       <c r="G144" t="n">
-        <v>56.4547585482151</v>
+        <v>6.98166280944456</v>
       </c>
       <c r="H144" t="n">
-        <v>57.3440909090909</v>
+        <v>7.10775</v>
       </c>
       <c r="I144" t="n">
-        <v>46.8942857142857</v>
+        <v>6.5855</v>
       </c>
       <c r="J144" t="n">
-        <v>39.2921100059312</v>
+        <v>0.385829519064862</v>
       </c>
       <c r="K144" t="n">
-        <v>6.26834188649049</v>
+        <v>0.621151768141138</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.0711847852928587</v>
+        <v>-0.0210563496046089</v>
       </c>
       <c r="M144" t="n">
-        <v>1.87354562310165</v>
+        <v>1.88168157879142</v>
       </c>
       <c r="N144" t="s">
         <v>18</v>
@@ -6738,43 +6741,43 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B145" t="n">
-        <v>58.8504545454545</v>
+        <v>5.83619047619048</v>
       </c>
       <c r="C145" t="n">
-        <v>61.8764107142857</v>
+        <v>7.39981121281465</v>
       </c>
       <c r="D145" t="n">
-        <v>64.6426082251082</v>
+        <v>8.39846428571428</v>
       </c>
       <c r="E145" t="n">
-        <v>70.9369071146245</v>
+        <v>10.4059090909091</v>
       </c>
       <c r="F145" t="n">
-        <v>74.3590476190476</v>
+        <v>12.682380952381</v>
       </c>
       <c r="G145" t="n">
-        <v>66.0358436068762</v>
+        <v>8.85786823407333</v>
       </c>
       <c r="H145" t="n">
-        <v>64.6426082251082</v>
+        <v>8.39846428571428</v>
       </c>
       <c r="I145" t="n">
-        <v>65.2104545454545</v>
+        <v>7.98285714285714</v>
       </c>
       <c r="J145" t="n">
-        <v>29.9995595945499</v>
+        <v>4.40961928536676</v>
       </c>
       <c r="K145" t="n">
-        <v>5.47718537157086</v>
+        <v>2.0999093517023</v>
       </c>
       <c r="L145" t="n">
-        <v>0.169386263088568</v>
+        <v>0.342378025791571</v>
       </c>
       <c r="M145" t="n">
-        <v>1.57942137162759</v>
+        <v>2.05989742223758</v>
       </c>
       <c r="N145" t="s">
         <v>18</v>
@@ -6782,43 +6785,43 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B146" t="n">
-        <v>54.7778260869565</v>
+        <v>2.98619047619048</v>
       </c>
       <c r="C146" t="n">
-        <v>62.7809980237154</v>
+        <v>3.46641233766234</v>
       </c>
       <c r="D146" t="n">
-        <v>69.935082815735</v>
+        <v>3.81575</v>
       </c>
       <c r="E146" t="n">
-        <v>81.1857282608696</v>
+        <v>4.12576555023923</v>
       </c>
       <c r="F146" t="n">
-        <v>94.9045454545454</v>
+        <v>5.34363636363636</v>
       </c>
       <c r="G146" t="n">
-        <v>72.3471076447707</v>
+        <v>3.94574581339713</v>
       </c>
       <c r="H146" t="n">
-        <v>69.935082815735</v>
+        <v>3.81575</v>
       </c>
       <c r="I146" t="n">
-        <v>54.7778260869565</v>
+        <v>5.233</v>
       </c>
       <c r="J146" t="n">
-        <v>174.108448871591</v>
+        <v>0.557071344471274</v>
       </c>
       <c r="K146" t="n">
-        <v>13.1950160618163</v>
+        <v>0.746372121981572</v>
       </c>
       <c r="L146" t="n">
-        <v>0.454203811583588</v>
+        <v>0.76193493782709</v>
       </c>
       <c r="M146" t="n">
-        <v>1.93934160354023</v>
+        <v>2.58298950849841</v>
       </c>
       <c r="N146" t="s">
         <v>18</v>
@@ -6826,43 +6829,43 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B147" t="n">
-        <v>40.6486956521739</v>
+        <v>3.43380952380952</v>
       </c>
       <c r="C147" t="n">
-        <v>88.9056521739131</v>
+        <v>3.99833333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>104.902608225108</v>
+        <v>4.26829192546584</v>
       </c>
       <c r="E147" t="n">
-        <v>118.894220779221</v>
+        <v>4.67141233766234</v>
       </c>
       <c r="F147" t="n">
-        <v>133.927142857143</v>
+        <v>5.82421052631579</v>
       </c>
       <c r="G147" t="n">
-        <v>99.6124324455738</v>
+        <v>4.38612420296459</v>
       </c>
       <c r="H147" t="n">
-        <v>104.902608225108</v>
+        <v>4.26829192546584</v>
       </c>
       <c r="I147" t="n">
-        <v>93.0026086956522</v>
+        <v>5.82421052631579</v>
       </c>
       <c r="J147" t="n">
-        <v>856.060560586996</v>
+        <v>0.452975589478534</v>
       </c>
       <c r="K147" t="n">
-        <v>29.2585126174759</v>
+        <v>0.673034612392657</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.713760734264383</v>
+        <v>0.782582224496854</v>
       </c>
       <c r="M147" t="n">
-        <v>2.5661553543264</v>
+        <v>2.97740524598795</v>
       </c>
       <c r="N147" t="s">
         <v>18</v>
@@ -6870,43 +6873,43 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B148" t="n">
-        <v>39.0685</v>
+        <v>3.16285714285714</v>
       </c>
       <c r="C148" t="n">
-        <v>49.4335227272727</v>
+        <v>3.80845238095238</v>
       </c>
       <c r="D148" t="n">
-        <v>66.8062747035573</v>
+        <v>4.07300915331808</v>
       </c>
       <c r="E148" t="n">
-        <v>71.9457608695652</v>
+        <v>4.34098214285714</v>
       </c>
       <c r="F148" t="n">
-        <v>77.9504761904762</v>
+        <v>4.53738636363636</v>
       </c>
       <c r="G148" t="n">
-        <v>61.7024460521363</v>
+        <v>4.00000456448268</v>
       </c>
       <c r="H148" t="n">
-        <v>66.8062747035573</v>
+        <v>4.07300915331808</v>
       </c>
       <c r="I148" t="n">
-        <v>41.6309090909091</v>
+        <v>4.492</v>
       </c>
       <c r="J148" t="n">
-        <v>190.236779093664</v>
+        <v>0.210938327496748</v>
       </c>
       <c r="K148" t="n">
-        <v>13.792634958327</v>
+        <v>0.459280227635316</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.467293321953288</v>
+        <v>-0.661696546213705</v>
       </c>
       <c r="M148" t="n">
-        <v>1.72988182649712</v>
+        <v>2.24588866809224</v>
       </c>
       <c r="N148" t="s">
         <v>18</v>
@@ -6914,43 +6917,43 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B149" t="n">
-        <v>73.7414285714286</v>
+        <v>1.94875</v>
       </c>
       <c r="C149" t="n">
-        <v>75.9577272727273</v>
+        <v>2.45211038961039</v>
       </c>
       <c r="D149" t="n">
-        <v>77.4940043290044</v>
+        <v>2.75890891304348</v>
       </c>
       <c r="E149" t="n">
-        <v>82.4725974025974</v>
+        <v>3.04528618012422</v>
       </c>
       <c r="F149" t="n">
-        <v>89.2234782608696</v>
+        <v>3.5395</v>
       </c>
       <c r="G149" t="n">
-        <v>79.4051561735366</v>
+        <v>2.75244486257227</v>
       </c>
       <c r="H149" t="n">
-        <v>77.4940043290044</v>
+        <v>2.75890891304348</v>
       </c>
       <c r="I149" t="n">
-        <v>78.3861904761905</v>
+        <v>2.67727</v>
       </c>
       <c r="J149" t="n">
-        <v>22.6915205493973</v>
+        <v>0.235473679091261</v>
       </c>
       <c r="K149" t="n">
-        <v>4.76356175034998</v>
+        <v>0.485256302474539</v>
       </c>
       <c r="L149" t="n">
-        <v>0.705538008547007</v>
+        <v>0.0693674016615938</v>
       </c>
       <c r="M149" t="n">
-        <v>2.38833301118562</v>
+        <v>2.08465137583212</v>
       </c>
       <c r="N149" t="s">
         <v>18</v>
@@ -6958,43 +6961,43 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B150" t="n">
-        <v>85.6168181818182</v>
+        <v>3.32714285714286</v>
       </c>
       <c r="C150" t="n">
-        <v>88.6260476190476</v>
+        <v>3.56755306818182</v>
       </c>
       <c r="D150" t="n">
-        <v>96.6602272727273</v>
+        <v>3.65163304347826</v>
       </c>
       <c r="E150" t="n">
-        <v>99.2720454545455</v>
+        <v>3.87901159090909</v>
       </c>
       <c r="F150" t="n">
-        <v>110.042857142857</v>
+        <v>4.23593809523809</v>
       </c>
       <c r="G150" t="n">
-        <v>95.0464297948429</v>
+        <v>3.7257610989719</v>
       </c>
       <c r="H150" t="n">
-        <v>96.6602272727273</v>
+        <v>3.65163304347826</v>
       </c>
       <c r="I150" t="n">
-        <v>89.51</v>
+        <v>3.32714285714286</v>
       </c>
       <c r="J150" t="n">
-        <v>59.16445971673</v>
+        <v>0.0919406114562906</v>
       </c>
       <c r="K150" t="n">
-        <v>7.69184371374835</v>
+        <v>0.303217102842651</v>
       </c>
       <c r="L150" t="n">
-        <v>0.347063490671773</v>
+        <v>0.332024286179044</v>
       </c>
       <c r="M150" t="n">
-        <v>2.19152206513063</v>
+        <v>2.03703656967447</v>
       </c>
       <c r="N150" t="s">
         <v>18</v>
@@ -7002,43 +7005,43 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B151" t="n">
-        <v>82.3595238095238</v>
+        <v>3.40122272727273</v>
       </c>
       <c r="C151" t="n">
-        <v>88.1161850649351</v>
+        <v>3.90959642857143</v>
       </c>
       <c r="D151" t="n">
-        <v>94.3086956521739</v>
+        <v>4.33708157894737</v>
       </c>
       <c r="E151" t="n">
-        <v>100.677191558441</v>
+        <v>4.65149523809523</v>
       </c>
       <c r="F151" t="n">
-        <v>106.150454545455</v>
+        <v>5.98421578947368</v>
       </c>
       <c r="G151" t="n">
-        <v>94.1431640629902</v>
+        <v>4.36964106276066</v>
       </c>
       <c r="H151" t="n">
-        <v>94.3086956521739</v>
+        <v>4.33708157894737</v>
       </c>
       <c r="I151" t="n">
-        <v>100.148636363636</v>
+        <v>4.70432380952381</v>
       </c>
       <c r="J151" t="n">
-        <v>56.400526324784</v>
+        <v>0.459685722008754</v>
       </c>
       <c r="K151" t="n">
-        <v>7.51002838375355</v>
+        <v>0.678001269916771</v>
       </c>
       <c r="L151" t="n">
-        <v>0.144023864243166</v>
+        <v>0.920634608339646</v>
       </c>
       <c r="M151" t="n">
-        <v>1.84018372080517</v>
+        <v>3.7584603753649</v>
       </c>
       <c r="N151" t="s">
         <v>18</v>
@@ -7046,43 +7049,43 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B152" t="n">
-        <v>92.0190909090909</v>
+        <v>1.9228</v>
       </c>
       <c r="C152" t="n">
-        <v>94.4425517598343</v>
+        <v>2.51340470779221</v>
       </c>
       <c r="D152" t="n">
-        <v>95.54225</v>
+        <v>2.76612305194806</v>
       </c>
       <c r="E152" t="n">
-        <v>101.511630434783</v>
+        <v>2.83211227272727</v>
       </c>
       <c r="F152" t="n">
-        <v>106.546363636364</v>
+        <v>2.97414</v>
       </c>
       <c r="G152" t="n">
-        <v>97.9344557923961</v>
+        <v>2.61354691643883</v>
       </c>
       <c r="H152" t="n">
-        <v>95.54225</v>
+        <v>2.76612305194806</v>
       </c>
       <c r="I152" t="n">
-        <v>94.6526086956521</v>
+        <v>2.97414</v>
       </c>
       <c r="J152" t="n">
-        <v>27.5023223700176</v>
+        <v>0.111046077642304</v>
       </c>
       <c r="K152" t="n">
-        <v>5.24426566546906</v>
+        <v>0.33323576885188</v>
       </c>
       <c r="L152" t="n">
-        <v>0.689430664883611</v>
+        <v>-1.06946320723235</v>
       </c>
       <c r="M152" t="n">
-        <v>1.93101717268085</v>
+        <v>2.78452195185338</v>
       </c>
       <c r="N152" t="s">
         <v>18</v>
@@ -7090,43 +7093,43 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B153" t="n">
-        <v>59.0995652173913</v>
+        <v>1.70443181818182</v>
       </c>
       <c r="C153" t="n">
-        <v>91.1118181818182</v>
+        <v>1.94822119047619</v>
       </c>
       <c r="D153" t="n">
-        <v>98.4773809523808</v>
+        <v>2.53362613636363</v>
       </c>
       <c r="E153" t="n">
-        <v>102.047045454545</v>
+        <v>2.83109953416149</v>
       </c>
       <c r="F153" t="n">
-        <v>105.241904761905</v>
+        <v>3.5818380952381</v>
       </c>
       <c r="G153" t="n">
-        <v>93.1346041392183</v>
+        <v>2.49237307945836</v>
       </c>
       <c r="H153" t="n">
-        <v>98.4773809523808</v>
+        <v>2.53362613636363</v>
       </c>
       <c r="I153" t="n">
-        <v>94.9965217391304</v>
+        <v>2.27443157894737</v>
       </c>
       <c r="J153" t="n">
-        <v>188.123635557938</v>
+        <v>0.31218932529011</v>
       </c>
       <c r="K153" t="n">
-        <v>13.7158169847056</v>
+        <v>0.5587390493693</v>
       </c>
       <c r="L153" t="n">
-        <v>-1.48432707240498</v>
+        <v>0.27599451686722</v>
       </c>
       <c r="M153" t="n">
-        <v>4.17618158829998</v>
+        <v>2.25551972384244</v>
       </c>
       <c r="N153" t="s">
         <v>18</v>
@@ -7134,43 +7137,43 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B154" t="n">
-        <v>37.2413043478261</v>
+        <v>2.79736</v>
       </c>
       <c r="C154" t="n">
-        <v>44.826856060606</v>
+        <v>2.87359278656127</v>
       </c>
       <c r="D154" t="n">
-        <v>47.6936363636364</v>
+        <v>2.94950772727273</v>
       </c>
       <c r="E154" t="n">
-        <v>51.9222134387352</v>
+        <v>3.01498546052632</v>
       </c>
       <c r="F154" t="n">
-        <v>59.8045454545455</v>
+        <v>3.260785</v>
       </c>
       <c r="G154" t="n">
-        <v>48.7476517112115</v>
+        <v>2.96444926097358</v>
       </c>
       <c r="H154" t="n">
-        <v>47.6936363636364</v>
+        <v>2.94950772727273</v>
       </c>
       <c r="I154" t="n">
-        <v>47.6036363636364</v>
+        <v>3.260785</v>
       </c>
       <c r="J154" t="n">
-        <v>45.0799711381503</v>
+        <v>0.0181655387123591</v>
       </c>
       <c r="K154" t="n">
-        <v>6.71416198331187</v>
+        <v>0.134779593085745</v>
       </c>
       <c r="L154" t="n">
-        <v>0.216756041628903</v>
+        <v>0.862188461643882</v>
       </c>
       <c r="M154" t="n">
-        <v>2.36057620117702</v>
+        <v>2.98354959408327</v>
       </c>
       <c r="N154" t="s">
         <v>18</v>
@@ -7178,43 +7181,43 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B155" t="n">
-        <v>30.3485714285714</v>
+        <v>2.67210526315789</v>
       </c>
       <c r="C155" t="n">
-        <v>40.1656211180124</v>
+        <v>2.77861493506494</v>
       </c>
       <c r="D155" t="n">
-        <v>45.0295887445888</v>
+        <v>2.94912712215321</v>
       </c>
       <c r="E155" t="n">
-        <v>47.3215909090909</v>
+        <v>3.43630517598344</v>
       </c>
       <c r="F155" t="n">
-        <v>52.0136363636364</v>
+        <v>4.135</v>
       </c>
       <c r="G155" t="n">
-        <v>43.2262510979359</v>
+        <v>3.1550970501022</v>
       </c>
       <c r="H155" t="n">
-        <v>45.0295887445888</v>
+        <v>2.94912712215321</v>
       </c>
       <c r="I155" t="n">
-        <v>31.7047619047619</v>
+        <v>3.8804380952381</v>
       </c>
       <c r="J155" t="n">
-        <v>46.6541459494794</v>
+        <v>0.283681652537577</v>
       </c>
       <c r="K155" t="n">
-        <v>6.83038402650095</v>
+        <v>0.532617735845867</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.780601266775145</v>
+        <v>0.907434237571377</v>
       </c>
       <c r="M155" t="n">
-        <v>2.51159325657953</v>
+        <v>2.18229067368722</v>
       </c>
       <c r="N155" t="s">
         <v>18</v>
@@ -7222,43 +7225,43 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B156" t="n">
-        <v>45.1677272727273</v>
+        <v>2.22432272727273</v>
       </c>
       <c r="C156" t="n">
-        <v>48.4276086956522</v>
+        <v>2.35282608695652</v>
       </c>
       <c r="D156" t="n">
-        <v>50.4370952380953</v>
+        <v>2.60393181818182</v>
       </c>
       <c r="E156" t="n">
-        <v>52.7700340909091</v>
+        <v>2.66840277777778</v>
       </c>
       <c r="F156" t="n">
-        <v>57.962380952381</v>
+        <v>3.07952380952381</v>
       </c>
       <c r="G156" t="n">
-        <v>50.9241867196813</v>
+        <v>2.56634599565724</v>
       </c>
       <c r="H156" t="n">
-        <v>50.4370952380953</v>
+        <v>2.60393181818182</v>
       </c>
       <c r="I156" t="n">
-        <v>52.5595454545455</v>
+        <v>3.07952380952381</v>
       </c>
       <c r="J156" t="n">
-        <v>14.6123449739299</v>
+        <v>0.0716994161348797</v>
       </c>
       <c r="K156" t="n">
-        <v>3.82260970724581</v>
+        <v>0.267767466535574</v>
       </c>
       <c r="L156" t="n">
-        <v>0.430177737882382</v>
+        <v>0.442318577599919</v>
       </c>
       <c r="M156" t="n">
-        <v>2.39242384446657</v>
+        <v>2.29235443795783</v>
       </c>
       <c r="N156" t="s">
         <v>18</v>
@@ -7266,43 +7269,43 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B157" t="n">
-        <v>48.6352380952381</v>
+        <v>1.61281818181818</v>
       </c>
       <c r="C157" t="n">
-        <v>62.6835227272727</v>
+        <v>1.74901785714286</v>
       </c>
       <c r="D157" t="n">
-        <v>66.9216666666667</v>
+        <v>1.91718045112782</v>
       </c>
       <c r="E157" t="n">
-        <v>69.9658315217391</v>
+        <v>2.20246180555556</v>
       </c>
       <c r="F157" t="n">
-        <v>70.9913636363636</v>
+        <v>2.60870588235294</v>
       </c>
       <c r="G157" t="n">
-        <v>64.7853409326181</v>
+        <v>2.00959657217818</v>
       </c>
       <c r="H157" t="n">
-        <v>66.9216666666667</v>
+        <v>1.91718045112782</v>
       </c>
       <c r="I157" t="n">
-        <v>63.5569565217391</v>
+        <v>2.03047619047619</v>
       </c>
       <c r="J157" t="n">
-        <v>44.5432809634181</v>
+        <v>0.107873124324627</v>
       </c>
       <c r="K157" t="n">
-        <v>6.67407528901331</v>
+        <v>0.328440442583777</v>
       </c>
       <c r="L157" t="n">
-        <v>-1.27614380432043</v>
+        <v>0.697816389362491</v>
       </c>
       <c r="M157" t="n">
-        <v>3.85389738864865</v>
+        <v>2.19647595048292</v>
       </c>
       <c r="N157" t="s">
         <v>18</v>
@@ -7310,43 +7313,43 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B158" t="n">
-        <v>51.3573913043478</v>
+        <v>2.66636842105263</v>
       </c>
       <c r="C158" t="n">
-        <v>54.7985681818182</v>
+        <v>3.26047368421052</v>
       </c>
       <c r="D158" t="n">
-        <v>56.9838095238095</v>
+        <v>3.85457894736842</v>
       </c>
       <c r="E158" t="n">
-        <v>58.5797889610389</v>
+        <v>4.44868421052632</v>
       </c>
       <c r="F158" t="n">
-        <v>63.8759090909091</v>
+        <v>5.04278947368421</v>
       </c>
       <c r="G158" t="n">
-        <v>56.9946542913608</v>
+        <v>3.85457894736842</v>
       </c>
       <c r="H158" t="n">
-        <v>56.9838095238095</v>
+        <v>3.85457894736842</v>
       </c>
       <c r="I158" t="n">
-        <v>51.3573913043478</v>
+        <v>2.66636842105263</v>
       </c>
       <c r="J158" t="n">
-        <v>11.4629679776448</v>
+        <v>2.82368850969529</v>
       </c>
       <c r="K158" t="n">
-        <v>3.38570051505517</v>
+        <v>1.68038344127026</v>
       </c>
       <c r="L158" t="n">
-        <v>0.406444278056171</v>
+        <v>-0.000000000000000529443999346733</v>
       </c>
       <c r="M158" t="n">
-        <v>2.76687141230074</v>
+        <v>1</v>
       </c>
       <c r="N158" t="s">
         <v>18</v>
@@ -7354,90 +7357,1410 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2020</v>
+        <v>1990</v>
       </c>
       <c r="B159" t="n">
-        <v>16.8072727272727</v>
+        <v>16.69</v>
       </c>
       <c r="C159" t="n">
-        <v>36.1960227272727</v>
+        <v>18.4275</v>
       </c>
       <c r="D159" t="n">
-        <v>40.1797727272727</v>
+        <v>22.54</v>
       </c>
       <c r="E159" t="n">
-        <v>43.5466925465838</v>
+        <v>28.6075</v>
       </c>
       <c r="F159" t="n">
-        <v>57.7147826086957</v>
+        <v>36.13</v>
       </c>
       <c r="G159" t="n">
-        <v>39.4134452365268</v>
+        <v>24.5175</v>
       </c>
       <c r="H159" t="n">
-        <v>40.1797727272727</v>
+        <v>22.54</v>
       </c>
       <c r="I159" t="n">
-        <v>57.7147826086957</v>
+        <v>22.96</v>
       </c>
       <c r="J159" t="n">
-        <v>113.639743334916</v>
+        <v>45.3529659090909</v>
       </c>
       <c r="K159" t="n">
-        <v>10.6601943385154</v>
+        <v>6.73446107042656</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.438757736306551</v>
+        <v>0.509938414250619</v>
       </c>
       <c r="M159" t="n">
-        <v>3.17608141026096</v>
+        <v>1.83417581582166</v>
       </c>
       <c r="N159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B160" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20.4275</v>
+      </c>
+      <c r="D160" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="E160" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="F160" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>21.5116666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="I160" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.53650606060606</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1.59264122155809</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.956231011797859</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3.44755511756845</v>
+      </c>
+      <c r="N160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B161" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C161" t="n">
+        <v>19.3125</v>
+      </c>
+      <c r="D161" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="E161" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="F161" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="G161" t="n">
+        <v>20.555</v>
+      </c>
+      <c r="H161" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="I161" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.67262727272727</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.29330092118086</v>
+      </c>
+      <c r="L161" t="n">
+        <v>-0.145964370154367</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.54262419308471</v>
+      </c>
+      <c r="N161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B162" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="C162" t="n">
+        <v>17.7725</v>
+      </c>
+      <c r="D162" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="E162" t="n">
+        <v>19.965</v>
+      </c>
+      <c r="F162" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="G162" t="n">
+        <v>18.455</v>
+      </c>
+      <c r="H162" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="I162" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.95404545454545</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.71873367760845</v>
+      </c>
+      <c r="L162" t="n">
+        <v>-0.898234090415426</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3.26520621331955</v>
+      </c>
+      <c r="N162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B163" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="C163" t="n">
+        <v>16.0525</v>
+      </c>
+      <c r="D163" t="n">
+        <v>17.575</v>
+      </c>
+      <c r="E163" t="n">
+        <v>18.1475</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="G163" t="n">
+        <v>17.1833333333333</v>
+      </c>
+      <c r="H163" t="n">
+        <v>17.575</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.75133333333333</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.65871436158651</v>
+      </c>
+      <c r="L163" t="n">
+        <v>-0.34185278529803</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.97128992085662</v>
+      </c>
+      <c r="N163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B164" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="D164" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="E164" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="G164" t="n">
+        <v>18.4316666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="I164" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.646469696969697</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.804033392944408</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.539519215920792</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2.48859168725582</v>
+      </c>
+      <c r="N164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B165" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21.0125</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21.625</v>
+      </c>
+      <c r="E165" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="F165" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="G165" t="n">
+        <v>22.1316666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>21.625</v>
+      </c>
+      <c r="I165" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4.63581515151515</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2.1530943201623</v>
+      </c>
+      <c r="L165" t="n">
+        <v>-0.0175837371315125</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.84185226160438</v>
+      </c>
+      <c r="N165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B166" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="D166" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="E166" t="n">
+        <v>21.0475</v>
+      </c>
+      <c r="F166" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="G166" t="n">
+        <v>20.585</v>
+      </c>
+      <c r="H166" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="I166" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3.1363</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.77096019153452</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.42980785762155</v>
+      </c>
+      <c r="M166" t="n">
+        <v>4.86142992669889</v>
+      </c>
+      <c r="N166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13.6325</v>
+      </c>
+      <c r="D167" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.1625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G167" t="n">
+        <v>14.4158333333333</v>
+      </c>
+      <c r="H167" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="I167" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2.10509924242424</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1.45089601364958</v>
+      </c>
+      <c r="L167" t="n">
+        <v>-0.520475888010742</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3.00888032453632</v>
+      </c>
+      <c r="N167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16.5125</v>
+      </c>
+      <c r="D168" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="E168" t="n">
+        <v>23.085</v>
+      </c>
+      <c r="F168" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="G168" t="n">
+        <v>19.1658333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="I168" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J168" t="n">
+        <v>22.5898265151515</v>
+      </c>
+      <c r="K168" t="n">
+        <v>4.75287560484719</v>
+      </c>
+      <c r="L168" t="n">
+        <v>-0.123922470366757</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.82118111498025</v>
+      </c>
+      <c r="N168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B169" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28.685</v>
+      </c>
+      <c r="D169" t="n">
+        <v>29.945</v>
+      </c>
+      <c r="E169" t="n">
+        <v>32.1575</v>
+      </c>
+      <c r="F169" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="G169" t="n">
+        <v>30.315</v>
+      </c>
+      <c r="H169" t="n">
+        <v>29.945</v>
+      </c>
+      <c r="I169" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="J169" t="n">
+        <v>7.05657272727272</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2.65642103727416</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.0155167367945357</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2.04989800467935</v>
+      </c>
+      <c r="N169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B170" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C170" t="n">
+        <v>24.7375</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.305</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.8225</v>
+      </c>
+      <c r="F170" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25.8691666666667</v>
+      </c>
+      <c r="H170" t="n">
+        <v>27.305</v>
+      </c>
+      <c r="I170" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="J170" t="n">
+        <v>12.7718992424242</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3.57377940595446</v>
+      </c>
+      <c r="L170" t="n">
+        <v>-0.925996235185395</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2.45350732551188</v>
+      </c>
+      <c r="N170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B171" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="C171" t="n">
+        <v>25.2275</v>
+      </c>
+      <c r="D171" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="E171" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26.1158333333333</v>
+      </c>
+      <c r="H171" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="I171" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="J171" t="n">
+        <v>10.1580992424242</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3.18717731581163</v>
+      </c>
+      <c r="L171" t="n">
+        <v>-0.917856204456343</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2.81261518722067</v>
+      </c>
+      <c r="N171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B172" t="n">
+        <v>28.2018181818182</v>
+      </c>
+      <c r="C172" t="n">
+        <v>29.8495998023716</v>
+      </c>
+      <c r="D172" t="n">
+        <v>30.8791739130435</v>
+      </c>
+      <c r="E172" t="n">
+        <v>32.3628260869565</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35.8525</v>
+      </c>
+      <c r="G172" t="n">
+        <v>31.1332671356421</v>
+      </c>
+      <c r="H172" t="n">
+        <v>30.8791739130435</v>
+      </c>
+      <c r="I172" t="n">
+        <v>32.9152173913043</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5.11515057761373</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2.26166986485953</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.449506825619936</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2.72682061379802</v>
+      </c>
+      <c r="N172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B173" t="n">
+        <v>34.1240909090909</v>
+      </c>
+      <c r="C173" t="n">
+        <v>36.7381669960474</v>
+      </c>
+      <c r="D173" t="n">
+        <v>40.488538961039</v>
+      </c>
+      <c r="E173" t="n">
+        <v>45.1532954545455</v>
+      </c>
+      <c r="F173" t="n">
+        <v>53.2461904761905</v>
+      </c>
+      <c r="G173" t="n">
+        <v>41.4292050081561</v>
+      </c>
+      <c r="H173" t="n">
+        <v>40.488538961039</v>
+      </c>
+      <c r="I173" t="n">
+        <v>34.1240909090909</v>
+      </c>
+      <c r="J173" t="n">
+        <v>34.6104736318499</v>
+      </c>
+      <c r="K173" t="n">
+        <v>5.88306668599379</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.560843301875568</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2.36312095381848</v>
+      </c>
+      <c r="N173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B174" t="n">
+        <v>46.8942857142857</v>
+      </c>
+      <c r="C174" t="n">
+        <v>52.1987337662337</v>
+      </c>
+      <c r="D174" t="n">
+        <v>57.3440909090909</v>
+      </c>
+      <c r="E174" t="n">
+        <v>60.1112932900433</v>
+      </c>
+      <c r="F174" t="n">
+        <v>65.6304545454545</v>
+      </c>
+      <c r="G174" t="n">
+        <v>56.4547585482151</v>
+      </c>
+      <c r="H174" t="n">
+        <v>57.3440909090909</v>
+      </c>
+      <c r="I174" t="n">
+        <v>46.8942857142857</v>
+      </c>
+      <c r="J174" t="n">
+        <v>39.2921100059312</v>
+      </c>
+      <c r="K174" t="n">
+        <v>6.26834188649049</v>
+      </c>
+      <c r="L174" t="n">
+        <v>-0.0711847852928587</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.87354562310165</v>
+      </c>
+      <c r="N174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B175" t="n">
+        <v>58.8504545454545</v>
+      </c>
+      <c r="C175" t="n">
+        <v>61.8764107142857</v>
+      </c>
+      <c r="D175" t="n">
+        <v>64.6426082251082</v>
+      </c>
+      <c r="E175" t="n">
+        <v>70.9369071146245</v>
+      </c>
+      <c r="F175" t="n">
+        <v>74.3590476190476</v>
+      </c>
+      <c r="G175" t="n">
+        <v>66.0358436068762</v>
+      </c>
+      <c r="H175" t="n">
+        <v>64.6426082251082</v>
+      </c>
+      <c r="I175" t="n">
+        <v>65.2104545454545</v>
+      </c>
+      <c r="J175" t="n">
+        <v>29.9995595945499</v>
+      </c>
+      <c r="K175" t="n">
+        <v>5.47718537157086</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.169386263088568</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.57942137162759</v>
+      </c>
+      <c r="N175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B176" t="n">
+        <v>54.7778260869565</v>
+      </c>
+      <c r="C176" t="n">
+        <v>62.7809980237154</v>
+      </c>
+      <c r="D176" t="n">
+        <v>69.935082815735</v>
+      </c>
+      <c r="E176" t="n">
+        <v>81.1857282608696</v>
+      </c>
+      <c r="F176" t="n">
+        <v>94.9045454545454</v>
+      </c>
+      <c r="G176" t="n">
+        <v>72.3471076447707</v>
+      </c>
+      <c r="H176" t="n">
+        <v>69.935082815735</v>
+      </c>
+      <c r="I176" t="n">
+        <v>54.7778260869565</v>
+      </c>
+      <c r="J176" t="n">
+        <v>174.108448871591</v>
+      </c>
+      <c r="K176" t="n">
+        <v>13.1950160618163</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.454203811583588</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.93934160354023</v>
+      </c>
+      <c r="N176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B177" t="n">
+        <v>40.6486956521739</v>
+      </c>
+      <c r="C177" t="n">
+        <v>88.9056521739131</v>
+      </c>
+      <c r="D177" t="n">
+        <v>104.902608225108</v>
+      </c>
+      <c r="E177" t="n">
+        <v>118.894220779221</v>
+      </c>
+      <c r="F177" t="n">
+        <v>133.927142857143</v>
+      </c>
+      <c r="G177" t="n">
+        <v>99.6124324455738</v>
+      </c>
+      <c r="H177" t="n">
+        <v>104.902608225108</v>
+      </c>
+      <c r="I177" t="n">
+        <v>93.0026086956522</v>
+      </c>
+      <c r="J177" t="n">
+        <v>856.060560586996</v>
+      </c>
+      <c r="K177" t="n">
+        <v>29.2585126174759</v>
+      </c>
+      <c r="L177" t="n">
+        <v>-0.713760734264383</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2.5661553543264</v>
+      </c>
+      <c r="N177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B178" t="n">
+        <v>39.0685</v>
+      </c>
+      <c r="C178" t="n">
+        <v>49.4335227272727</v>
+      </c>
+      <c r="D178" t="n">
+        <v>66.8062747035573</v>
+      </c>
+      <c r="E178" t="n">
+        <v>71.9457608695652</v>
+      </c>
+      <c r="F178" t="n">
+        <v>77.9504761904762</v>
+      </c>
+      <c r="G178" t="n">
+        <v>61.7024460521363</v>
+      </c>
+      <c r="H178" t="n">
+        <v>66.8062747035573</v>
+      </c>
+      <c r="I178" t="n">
+        <v>41.6309090909091</v>
+      </c>
+      <c r="J178" t="n">
+        <v>190.236779093664</v>
+      </c>
+      <c r="K178" t="n">
+        <v>13.792634958327</v>
+      </c>
+      <c r="L178" t="n">
+        <v>-0.467293321953288</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.72988182649712</v>
+      </c>
+      <c r="N178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B179" t="n">
+        <v>73.7414285714286</v>
+      </c>
+      <c r="C179" t="n">
+        <v>75.9577272727273</v>
+      </c>
+      <c r="D179" t="n">
+        <v>77.4940043290044</v>
+      </c>
+      <c r="E179" t="n">
+        <v>82.4725974025974</v>
+      </c>
+      <c r="F179" t="n">
+        <v>89.2234782608696</v>
+      </c>
+      <c r="G179" t="n">
+        <v>79.4051561735366</v>
+      </c>
+      <c r="H179" t="n">
+        <v>77.4940043290044</v>
+      </c>
+      <c r="I179" t="n">
+        <v>78.3861904761905</v>
+      </c>
+      <c r="J179" t="n">
+        <v>22.6915205493973</v>
+      </c>
+      <c r="K179" t="n">
+        <v>4.76356175034998</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.705538008547007</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2.38833301118562</v>
+      </c>
+      <c r="N179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B180" t="n">
+        <v>85.6168181818182</v>
+      </c>
+      <c r="C180" t="n">
+        <v>88.6260476190476</v>
+      </c>
+      <c r="D180" t="n">
+        <v>96.6602272727273</v>
+      </c>
+      <c r="E180" t="n">
+        <v>99.2720454545455</v>
+      </c>
+      <c r="F180" t="n">
+        <v>110.042857142857</v>
+      </c>
+      <c r="G180" t="n">
+        <v>95.0464297948429</v>
+      </c>
+      <c r="H180" t="n">
+        <v>96.6602272727273</v>
+      </c>
+      <c r="I180" t="n">
+        <v>89.51</v>
+      </c>
+      <c r="J180" t="n">
+        <v>59.16445971673</v>
+      </c>
+      <c r="K180" t="n">
+        <v>7.69184371374835</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.347063490671773</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2.19152206513063</v>
+      </c>
+      <c r="N180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B181" t="n">
+        <v>82.3595238095238</v>
+      </c>
+      <c r="C181" t="n">
+        <v>88.1161850649351</v>
+      </c>
+      <c r="D181" t="n">
+        <v>94.3086956521739</v>
+      </c>
+      <c r="E181" t="n">
+        <v>100.677191558441</v>
+      </c>
+      <c r="F181" t="n">
+        <v>106.150454545455</v>
+      </c>
+      <c r="G181" t="n">
+        <v>94.1431640629902</v>
+      </c>
+      <c r="H181" t="n">
+        <v>94.3086956521739</v>
+      </c>
+      <c r="I181" t="n">
+        <v>100.148636363636</v>
+      </c>
+      <c r="J181" t="n">
+        <v>56.400526324784</v>
+      </c>
+      <c r="K181" t="n">
+        <v>7.51002838375355</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.144023864243166</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.84018372080517</v>
+      </c>
+      <c r="N181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B182" t="n">
+        <v>92.0190909090909</v>
+      </c>
+      <c r="C182" t="n">
+        <v>94.4425517598343</v>
+      </c>
+      <c r="D182" t="n">
+        <v>95.54225</v>
+      </c>
+      <c r="E182" t="n">
+        <v>101.511630434783</v>
+      </c>
+      <c r="F182" t="n">
+        <v>106.546363636364</v>
+      </c>
+      <c r="G182" t="n">
+        <v>97.9344557923961</v>
+      </c>
+      <c r="H182" t="n">
+        <v>95.54225</v>
+      </c>
+      <c r="I182" t="n">
+        <v>94.6526086956521</v>
+      </c>
+      <c r="J182" t="n">
+        <v>27.5023223700176</v>
+      </c>
+      <c r="K182" t="n">
+        <v>5.24426566546906</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.689430664883611</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.93101717268085</v>
+      </c>
+      <c r="N182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B183" t="n">
+        <v>59.0995652173913</v>
+      </c>
+      <c r="C183" t="n">
+        <v>91.1118181818182</v>
+      </c>
+      <c r="D183" t="n">
+        <v>98.4773809523808</v>
+      </c>
+      <c r="E183" t="n">
+        <v>102.047045454545</v>
+      </c>
+      <c r="F183" t="n">
+        <v>105.241904761905</v>
+      </c>
+      <c r="G183" t="n">
+        <v>93.1346041392183</v>
+      </c>
+      <c r="H183" t="n">
+        <v>98.4773809523808</v>
+      </c>
+      <c r="I183" t="n">
+        <v>94.9965217391304</v>
+      </c>
+      <c r="J183" t="n">
+        <v>188.123635557938</v>
+      </c>
+      <c r="K183" t="n">
+        <v>13.7158169847056</v>
+      </c>
+      <c r="L183" t="n">
+        <v>-1.48432707240498</v>
+      </c>
+      <c r="M183" t="n">
+        <v>4.17618158829998</v>
+      </c>
+      <c r="N183" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B184" t="n">
+        <v>37.2413043478261</v>
+      </c>
+      <c r="C184" t="n">
+        <v>44.826856060606</v>
+      </c>
+      <c r="D184" t="n">
+        <v>47.6936363636364</v>
+      </c>
+      <c r="E184" t="n">
+        <v>51.9222134387352</v>
+      </c>
+      <c r="F184" t="n">
+        <v>59.8045454545455</v>
+      </c>
+      <c r="G184" t="n">
+        <v>48.7476517112115</v>
+      </c>
+      <c r="H184" t="n">
+        <v>47.6936363636364</v>
+      </c>
+      <c r="I184" t="n">
+        <v>47.6036363636364</v>
+      </c>
+      <c r="J184" t="n">
+        <v>45.0799711381503</v>
+      </c>
+      <c r="K184" t="n">
+        <v>6.71416198331187</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.216756041628903</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2.36057620117702</v>
+      </c>
+      <c r="N184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B185" t="n">
+        <v>30.3485714285714</v>
+      </c>
+      <c r="C185" t="n">
+        <v>40.1656211180124</v>
+      </c>
+      <c r="D185" t="n">
+        <v>45.0295887445888</v>
+      </c>
+      <c r="E185" t="n">
+        <v>47.3215909090909</v>
+      </c>
+      <c r="F185" t="n">
+        <v>52.0136363636364</v>
+      </c>
+      <c r="G185" t="n">
+        <v>43.2262510979359</v>
+      </c>
+      <c r="H185" t="n">
+        <v>45.0295887445888</v>
+      </c>
+      <c r="I185" t="n">
+        <v>31.7047619047619</v>
+      </c>
+      <c r="J185" t="n">
+        <v>46.6541459494794</v>
+      </c>
+      <c r="K185" t="n">
+        <v>6.83038402650095</v>
+      </c>
+      <c r="L185" t="n">
+        <v>-0.780601266775145</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2.51159325657953</v>
+      </c>
+      <c r="N185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B186" t="n">
+        <v>45.1677272727273</v>
+      </c>
+      <c r="C186" t="n">
+        <v>48.4276086956522</v>
+      </c>
+      <c r="D186" t="n">
+        <v>50.4370952380953</v>
+      </c>
+      <c r="E186" t="n">
+        <v>52.7700340909091</v>
+      </c>
+      <c r="F186" t="n">
+        <v>57.962380952381</v>
+      </c>
+      <c r="G186" t="n">
+        <v>50.9241867196813</v>
+      </c>
+      <c r="H186" t="n">
+        <v>50.4370952380953</v>
+      </c>
+      <c r="I186" t="n">
+        <v>52.5595454545455</v>
+      </c>
+      <c r="J186" t="n">
+        <v>14.6123449739299</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3.82260970724581</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.430177737882382</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2.39242384446657</v>
+      </c>
+      <c r="N186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B187" t="n">
+        <v>48.6352380952381</v>
+      </c>
+      <c r="C187" t="n">
+        <v>62.6835227272727</v>
+      </c>
+      <c r="D187" t="n">
+        <v>66.9216666666667</v>
+      </c>
+      <c r="E187" t="n">
+        <v>69.9658315217391</v>
+      </c>
+      <c r="F187" t="n">
+        <v>70.9913636363636</v>
+      </c>
+      <c r="G187" t="n">
+        <v>64.7853409326181</v>
+      </c>
+      <c r="H187" t="n">
+        <v>66.9216666666667</v>
+      </c>
+      <c r="I187" t="n">
+        <v>63.5569565217391</v>
+      </c>
+      <c r="J187" t="n">
+        <v>44.5432809634181</v>
+      </c>
+      <c r="K187" t="n">
+        <v>6.67407528901331</v>
+      </c>
+      <c r="L187" t="n">
+        <v>-1.27614380432043</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3.85389738864865</v>
+      </c>
+      <c r="N187" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B188" t="n">
+        <v>51.3573913043478</v>
+      </c>
+      <c r="C188" t="n">
+        <v>54.7985681818182</v>
+      </c>
+      <c r="D188" t="n">
+        <v>56.9838095238095</v>
+      </c>
+      <c r="E188" t="n">
+        <v>58.5797889610389</v>
+      </c>
+      <c r="F188" t="n">
+        <v>63.8759090909091</v>
+      </c>
+      <c r="G188" t="n">
+        <v>56.9946542913608</v>
+      </c>
+      <c r="H188" t="n">
+        <v>56.9838095238095</v>
+      </c>
+      <c r="I188" t="n">
+        <v>51.3573913043478</v>
+      </c>
+      <c r="J188" t="n">
+        <v>11.4629679776448</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3.38570051505517</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.406444278056171</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2.76687141230074</v>
+      </c>
+      <c r="N188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B189" t="n">
+        <v>16.8072727272727</v>
+      </c>
+      <c r="C189" t="n">
+        <v>36.1960227272727</v>
+      </c>
+      <c r="D189" t="n">
+        <v>40.1797727272727</v>
+      </c>
+      <c r="E189" t="n">
+        <v>43.5466925465838</v>
+      </c>
+      <c r="F189" t="n">
+        <v>57.7147826086957</v>
+      </c>
+      <c r="G189" t="n">
+        <v>39.4134452365268</v>
+      </c>
+      <c r="H189" t="n">
+        <v>40.1797727272727</v>
+      </c>
+      <c r="I189" t="n">
+        <v>57.7147826086957</v>
+      </c>
+      <c r="J189" t="n">
+        <v>113.639743334916</v>
+      </c>
+      <c r="K189" t="n">
+        <v>10.6601943385154</v>
+      </c>
+      <c r="L189" t="n">
+        <v>-0.438757736306551</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3.17608141026096</v>
+      </c>
+      <c r="N189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
         <v>2021</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B190" t="n">
         <v>51.94</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C190" t="n">
         <v>53.72525</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D190" t="n">
         <v>55.5105</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E190" t="n">
         <v>57.29575</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F190" t="n">
         <v>59.081</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G190" t="n">
         <v>55.5105</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H190" t="n">
         <v>55.5105</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I190" t="n">
         <v>51.94</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J190" t="n">
         <v>25.4969405</v>
       </c>
-      <c r="K160" t="n">
+      <c r="K190" t="n">
         <v>5.04944952445314</v>
       </c>
-      <c r="L160" t="n">
+      <c r="L190" t="n">
         <v>0</v>
       </c>
-      <c r="M160" t="n">
+      <c r="M190" t="n">
         <v>1</v>
       </c>
-      <c r="N160" t="s">
-        <v>18</v>
+      <c r="N190" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/results/descriptive stats/Descriptives.xlsx
+++ b/results/descriptive stats/Descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/descriptive stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_FA765A8059C6566BAD6284E87631BBFDFB5A821A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647718EF-806E-694E-88D1-873859CFC0AD}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_DD5E7A8259C6566BAD628407B6F692E4139EBD5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6240D5FB-6EF3-7245-ABC6-D9254D6B6AA6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29580" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>sd.perc</t>
   </si>
   <si>
     <t>skewness</t>
@@ -115,9 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,22 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98:M127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +467,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -508,16 +506,19 @@
         <v>7.30200408356251</v>
       </c>
       <c r="L2">
+        <v>0.31768562469273498</v>
+      </c>
+      <c r="M2">
         <v>0.50281826814159902</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.7008123416154299</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -552,16 +553,19 @@
         <v>1.5660844340409801</v>
       </c>
       <c r="L3">
+        <v>8.08614655500699E-2</v>
+      </c>
+      <c r="M3">
         <v>0.99605404492057603</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.0233575734025702</v>
       </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -596,16 +600,19 @@
         <v>1.2089323489105701</v>
       </c>
       <c r="L4">
+        <v>6.3508244043806894E-2</v>
+      </c>
+      <c r="M4">
         <v>-9.2182121077343998E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.6160067439582799</v>
       </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -640,16 +647,19 @@
         <v>1.5441051149648499</v>
       </c>
       <c r="L5">
+        <v>9.1984021939923402E-2</v>
+      </c>
+      <c r="M5">
         <v>-0.79296562848514096</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.9905402088190298</v>
       </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -684,16 +694,19 @@
         <v>1.4448015487088599</v>
       </c>
       <c r="L6">
+        <v>9.0592635513148195E-2</v>
+      </c>
+      <c r="M6">
         <v>-0.43083478574087902</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.9421967266073601</v>
       </c>
-      <c r="N6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -728,16 +741,19 @@
         <v>0.84655943606333905</v>
       </c>
       <c r="L7">
+        <v>4.9206651648147602E-2</v>
+      </c>
+      <c r="M7">
         <v>0.46526243447311999</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2.25790282582643</v>
       </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -772,16 +788,19 @@
         <v>2.0505535099015799</v>
       </c>
       <c r="L8">
+        <v>0.10064889610119</v>
+      </c>
+      <c r="M8">
         <v>0.28425626619025401</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.7785118163179701</v>
       </c>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1997</v>
       </c>
@@ -816,16 +835,19 @@
         <v>1.5699515047518899</v>
       </c>
       <c r="L9">
+        <v>8.1481847917575803E-2</v>
+      </c>
+      <c r="M9">
         <v>1.33870750248653</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4.6952326989862296</v>
       </c>
-      <c r="N9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -860,16 +882,19 @@
         <v>1.2075855575436001</v>
       </c>
       <c r="L10">
+        <v>9.2364246864192506E-2</v>
+      </c>
+      <c r="M10">
         <v>-0.57262477280705804</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3.3095416988869801</v>
       </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -904,16 +929,19 @@
         <v>4.9111477242796298</v>
       </c>
       <c r="L11">
+        <v>0.27313237563774201</v>
+      </c>
+      <c r="M11">
         <v>-5.6229372673584001E-2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.7223672114870501</v>
       </c>
-      <c r="N11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -948,16 +976,19 @@
         <v>2.8347822053052201</v>
       </c>
       <c r="L12">
+        <v>0.10040254556731699</v>
+      </c>
+      <c r="M12">
         <v>-1.67987562981728E-2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.98512192860238</v>
       </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -992,16 +1023,19 @@
         <v>3.19235580818627</v>
       </c>
       <c r="L13">
+        <v>0.131206184533463</v>
+      </c>
+      <c r="M13">
         <v>-0.97892936582677803</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2.4478664940033101</v>
       </c>
-      <c r="N13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -1036,16 +1070,19 @@
         <v>2.8833377123806301</v>
       </c>
       <c r="L14">
+        <v>0.115564637770767</v>
+      </c>
+      <c r="M14">
         <v>-0.92514088037543996</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.8679337930391302</v>
       </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -1080,16 +1117,19 @@
         <v>2.0621006563760602</v>
       </c>
       <c r="L15">
+        <v>7.1344829307254498E-2</v>
+      </c>
+      <c r="M15">
         <v>8.7684258380574601E-2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.5591165001687601</v>
       </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -1124,16 +1164,19 @@
         <v>4.8407370971705497</v>
       </c>
       <c r="L16">
+        <v>0.128344905295497</v>
+      </c>
+      <c r="M16">
         <v>0.27528682248214897</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.1432774435900401</v>
       </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -1168,16 +1211,19 @@
         <v>6.1673833290928304</v>
       </c>
       <c r="L17">
+        <v>0.11558070430372901</v>
+      </c>
+      <c r="M17">
         <v>-0.26586501235312698</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.04666372659893</v>
       </c>
-      <c r="N17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -1212,16 +1258,19 @@
         <v>5.2506593612770898</v>
       </c>
       <c r="L18">
+        <v>8.1690701350482994E-2</v>
+      </c>
+      <c r="M18">
         <v>0.323900382468089</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.6080925054727999</v>
       </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -1256,16 +1305,19 @@
         <v>12.0060601424574</v>
       </c>
       <c r="L19">
+        <v>0.16871652930731801</v>
+      </c>
+      <c r="M19">
         <v>0.37259219181197201</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2.1018559576498501</v>
       </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1300,16 +1352,19 @@
         <v>29.033149809434601</v>
       </c>
       <c r="L20">
+        <v>0.29941966340616599</v>
+      </c>
+      <c r="M20">
         <v>-0.61365190950842397</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2.4183360602188002</v>
       </c>
-      <c r="N20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -1344,16 +1399,19 @@
         <v>13.036516509485701</v>
       </c>
       <c r="L21">
+        <v>0.21106468453013599</v>
+      </c>
+      <c r="M21">
         <v>-0.38640414611023999</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.5876237766502199</v>
       </c>
-      <c r="N21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -1388,16 +1446,19 @@
         <v>5.0189846959489</v>
       </c>
       <c r="L22">
+        <v>6.3503495987180303E-2</v>
+      </c>
+      <c r="M22">
         <v>0.97890606550304105</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2.7985602109180499</v>
       </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -1432,16 +1493,19 @@
         <v>6.1432970098840602</v>
       </c>
       <c r="L23">
+        <v>5.9040752132947898E-2</v>
+      </c>
+      <c r="M23">
         <v>8.6273325604454401E-2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2.9606592862614298</v>
       </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -1476,16 +1540,19 @@
         <v>7.4419988748674299</v>
       </c>
       <c r="L24">
+        <v>7.0871175516997606E-2</v>
+      </c>
+      <c r="M24">
         <v>-8.5966282457371507E-2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.67350867858549</v>
       </c>
-      <c r="N24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1520,16 +1587,19 @@
         <v>3.4342774620108401</v>
       </c>
       <c r="L25">
+        <v>3.2999865585204201E-2</v>
+      </c>
+      <c r="M25">
         <v>-0.26374777074098799</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.7961857773900201</v>
       </c>
-      <c r="N25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -1564,16 +1634,19 @@
         <v>14.5438711098837</v>
       </c>
       <c r="L26">
+        <v>0.15110930075444001</v>
+      </c>
+      <c r="M26">
         <v>-1.4909120455634799</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4.0452537247151303</v>
       </c>
-      <c r="N26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -1608,16 +1681,19 @@
         <v>7.7416423035459303</v>
       </c>
       <c r="L27">
+        <v>0.152415409696087</v>
+      </c>
+      <c r="M27">
         <v>-9.5798569467535996E-2</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.1908865969071898</v>
       </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -1652,16 +1728,19 @@
         <v>6.9272044490854698</v>
       </c>
       <c r="L28">
+        <v>0.16171203388123401</v>
+      </c>
+      <c r="M28">
         <v>-0.73741296759722597</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.5697956500882699</v>
       </c>
-      <c r="N28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -1696,16 +1775,19 @@
         <v>4.4800380733184602</v>
       </c>
       <c r="L29">
+        <v>8.4826968752910695E-2</v>
+      </c>
+      <c r="M29">
         <v>0.50646164197166099</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.5707082625595201</v>
       </c>
-      <c r="N29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -1740,16 +1822,19 @@
         <v>6.5906104616286001</v>
       </c>
       <c r="L30">
+        <v>9.6454310966046494E-2</v>
+      </c>
+      <c r="M30">
         <v>-0.75005973045427599</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.9145189754060499</v>
       </c>
-      <c r="N30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1784,16 +1869,19 @@
         <v>3.7280999533122201</v>
       </c>
       <c r="L31">
+        <v>6.0727043205626899E-2</v>
+      </c>
+      <c r="M31">
         <v>0.55680408464233999</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2.42229086749462</v>
       </c>
-      <c r="N31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -1828,16 +1916,19 @@
         <v>10.6036896484985</v>
       </c>
       <c r="L32">
+        <v>0.25682854781946601</v>
+      </c>
+      <c r="M32">
         <v>3.7822135521702903E-2</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2.9990119618028701</v>
       </c>
-      <c r="N32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -1872,16 +1963,19 @@
         <v>4.9380802064162497</v>
       </c>
       <c r="L33">
+        <v>8.6665802514395096E-2</v>
+      </c>
+      <c r="M33">
         <v>-3.0042307250008801E-15</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1990</v>
       </c>
@@ -1916,16 +2010,19 @@
         <v>7.8578998562920797</v>
       </c>
       <c r="L34">
+        <v>0.331405469635908</v>
+      </c>
+      <c r="M34">
         <v>0.47261921068639101</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1.63468036027474</v>
       </c>
-      <c r="N34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1991</v>
       </c>
@@ -1960,16 +2057,19 @@
         <v>1.60313235053546</v>
       </c>
       <c r="L35">
+        <v>8.0230161841794406E-2</v>
+      </c>
+      <c r="M35">
         <v>1.0152427519812799</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>3.1685867139001198</v>
       </c>
-      <c r="N35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -2004,16 +2104,19 @@
         <v>1.0913999211465899</v>
       </c>
       <c r="L36">
+        <v>5.62166761976182E-2</v>
+      </c>
+      <c r="M36">
         <v>-5.2727967215034401E-2</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2.03658260835478</v>
       </c>
-      <c r="N36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1993</v>
       </c>
@@ -2048,16 +2151,19 @@
         <v>1.58216839122194</v>
       </c>
       <c r="L37">
+        <v>9.3082417486214999E-2</v>
+      </c>
+      <c r="M37">
         <v>-0.76979921004501395</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>2.8639787548574902</v>
       </c>
-      <c r="N37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1994</v>
       </c>
@@ -2092,16 +2198,19 @@
         <v>1.3121838724628201</v>
       </c>
       <c r="L38">
+        <v>8.2914045966793803E-2</v>
+      </c>
+      <c r="M38">
         <v>-0.40499207295363099</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>1.90420588038044</v>
       </c>
-      <c r="N38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1995</v>
       </c>
@@ -2136,16 +2245,19 @@
         <v>0.90794932110606796</v>
       </c>
       <c r="L39">
+        <v>5.3233946612951603E-2</v>
+      </c>
+      <c r="M39">
         <v>0.49193265254990398</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2.2068605364741098</v>
       </c>
-      <c r="N39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1996</v>
       </c>
@@ -2180,16 +2292,19 @@
         <v>2.0485575117110799</v>
       </c>
       <c r="L40">
+        <v>0.100157635839851</v>
+      </c>
+      <c r="M40">
         <v>0.31165395541361401</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>1.7957296883623299</v>
       </c>
-      <c r="N40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1997</v>
       </c>
@@ -2224,16 +2339,19 @@
         <v>1.73498471742461</v>
       </c>
       <c r="L41">
+        <v>9.0761657478945795E-2</v>
+      </c>
+      <c r="M41">
         <v>1.2947896015004801</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>4.36859459185722</v>
       </c>
-      <c r="N41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1998</v>
       </c>
@@ -2268,16 +2386,19 @@
         <v>1.4949944258536001</v>
       </c>
       <c r="L42">
+        <v>0.11753870870892499</v>
+      </c>
+      <c r="M42">
         <v>-0.309213524610709</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2.5214093168256002</v>
       </c>
-      <c r="N42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1999</v>
       </c>
@@ -2312,16 +2433,19 @@
         <v>5.2528545630548402</v>
       </c>
       <c r="L43">
+        <v>0.29678541718846502</v>
+      </c>
+      <c r="M43">
         <v>2.4397256982492999E-2</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>1.6897546821331</v>
       </c>
-      <c r="N43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -2356,16 +2480,19 @@
         <v>3.0390761903758001</v>
       </c>
       <c r="L44">
+        <v>0.107359399112454</v>
+      </c>
+      <c r="M44">
         <v>-0.240621153567566</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>2.3259470280643701</v>
       </c>
-      <c r="N44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2001</v>
       </c>
@@ -2400,16 +2527,19 @@
         <v>3.3179068794356001</v>
       </c>
       <c r="L45">
+        <v>0.135914803554404</v>
+      </c>
+      <c r="M45">
         <v>-0.74115632548356603</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>2.2510664970713701</v>
       </c>
-      <c r="N45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2002</v>
       </c>
@@ -2444,16 +2574,19 @@
         <v>2.8489737652620701</v>
       </c>
       <c r="L46">
+        <v>0.113966548380375</v>
+      </c>
+      <c r="M46">
         <v>-0.70902028861156996</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2.6357189723872398</v>
       </c>
-      <c r="N46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2003</v>
       </c>
@@ -2488,16 +2621,19 @@
         <v>2.2025992380053498</v>
       </c>
       <c r="L47">
+        <v>7.6360122719014795E-2</v>
+      </c>
+      <c r="M47">
         <v>-0.13464250292688601</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2.3079370673362298</v>
       </c>
-      <c r="N47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2004</v>
       </c>
@@ -2532,16 +2668,19 @@
         <v>5.7628324363922898</v>
       </c>
       <c r="L48">
+        <v>0.15054051460616899</v>
+      </c>
+      <c r="M48">
         <v>0.42577507555248001</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>2.3229125013928398</v>
       </c>
-      <c r="N48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2005</v>
       </c>
@@ -2576,16 +2715,19 @@
         <v>6.20548237599185</v>
       </c>
       <c r="L49">
+        <v>0.114001200252525</v>
+      </c>
+      <c r="M49">
         <v>-0.122630832605594</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>2.1762739437490701</v>
       </c>
-      <c r="N49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2006</v>
       </c>
@@ -2620,16 +2762,19 @@
         <v>5.7084172595370797</v>
       </c>
       <c r="L50">
+        <v>8.7316323966783696E-2</v>
+      </c>
+      <c r="M50">
         <v>0.27972883498757001</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>1.5907164388035899</v>
       </c>
-      <c r="N50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2007</v>
       </c>
@@ -2664,16 +2809,19 @@
         <v>12.1131474515837</v>
       </c>
       <c r="L51">
+        <v>0.166546879154917</v>
+      </c>
+      <c r="M51">
         <v>0.25424629744625898</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>2.1335801428891599</v>
       </c>
-      <c r="N51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2008</v>
       </c>
@@ -2708,16 +2856,19 @@
         <v>29.379260790657</v>
       </c>
       <c r="L52">
+        <v>0.30111188304365999</v>
+      </c>
+      <c r="M52">
         <v>-0.61589078057901503</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>2.4186313887315398</v>
       </c>
-      <c r="N52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2009</v>
       </c>
@@ -2752,16 +2903,19 @@
         <v>12.5248606904825</v>
       </c>
       <c r="L53">
+        <v>0.20245610103457101</v>
+      </c>
+      <c r="M53">
         <v>-0.35952606749215699</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>1.55009120375709</v>
       </c>
-      <c r="N53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -2796,16 +2950,19 @@
         <v>5.4980273612744597</v>
       </c>
       <c r="L54">
+        <v>6.9040554893282702E-2</v>
+      </c>
+      <c r="M54">
         <v>0.98247287671879902</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>2.8586894885358198</v>
       </c>
-      <c r="N54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -2840,16 +2997,19 @@
         <v>6.66991268618471</v>
       </c>
       <c r="L55">
+        <v>6.0044690770993503E-2</v>
+      </c>
+      <c r="M55">
         <v>-0.51844462974461702</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>3.6509645431464399</v>
       </c>
-      <c r="N55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2012</v>
       </c>
@@ -2884,16 +3044,19 @@
         <v>7.7797817080502201</v>
       </c>
       <c r="L56">
+        <v>6.9487407035243295E-2</v>
+      </c>
+      <c r="M56">
         <v>-0.36431626844054399</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>3.1233633441549902</v>
       </c>
-      <c r="N56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2013</v>
       </c>
@@ -2928,16 +3091,19 @@
         <v>4.20809921431061</v>
       </c>
       <c r="L57">
+        <v>3.8661745569950598E-2</v>
+      </c>
+      <c r="M57">
         <v>-6.8578307028099597E-2</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>2.2838079756862002</v>
       </c>
-      <c r="N57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -2972,16 +3138,19 @@
         <v>15.347760863081101</v>
       </c>
       <c r="L58">
+        <v>0.15511661200184301</v>
+      </c>
+      <c r="M58">
         <v>-1.3948901359021</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>3.7487929655276999</v>
       </c>
-      <c r="N58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -3016,16 +3185,19 @@
         <v>8.0847998264324001</v>
       </c>
       <c r="L59">
+        <v>0.15429178545267</v>
+      </c>
+      <c r="M59">
         <v>-0.13175416482088001</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2.0401103948990902</v>
       </c>
-      <c r="N59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -3060,16 +3232,19 @@
         <v>6.7331848417798499</v>
       </c>
       <c r="L60">
+        <v>0.15286182410846</v>
+      </c>
+      <c r="M60">
         <v>-0.74336334272360205</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>2.74636180066768</v>
       </c>
-      <c r="N60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -3104,16 +3279,19 @@
         <v>5.16772850025413</v>
       </c>
       <c r="L61">
+        <v>9.4993421300719805E-2</v>
+      </c>
+      <c r="M61">
         <v>0.56963146343495297</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>2.55253367855373</v>
       </c>
-      <c r="N61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3148,16 +3326,19 @@
         <v>6.8673584909254703</v>
       </c>
       <c r="L62">
+        <v>9.6626473519761794E-2</v>
+      </c>
+      <c r="M62">
         <v>-0.59136462558332303</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>2.7253624201294002</v>
       </c>
-      <c r="N62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -3192,16 +3373,19 @@
         <v>3.9872788536529602</v>
       </c>
       <c r="L63">
+        <v>6.2270177683663698E-2</v>
+      </c>
+      <c r="M63">
         <v>0.50202104701144201</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>2.3457508815497801</v>
       </c>
-      <c r="N63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -3236,16 +3420,19 @@
         <v>10.707586214357701</v>
       </c>
       <c r="L64">
+        <v>0.25314364763210001</v>
+      </c>
+      <c r="M64">
         <v>0.23818026330539499</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>2.92953063830458</v>
       </c>
-      <c r="N64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3280,16 +3467,19 @@
         <v>5.2411259697819004</v>
       </c>
       <c r="L65">
+        <v>8.9964883196385695E-2</v>
+      </c>
+      <c r="M65">
         <v>-2.86164175585021E-15</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>1</v>
       </c>
-      <c r="N65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1990</v>
       </c>
@@ -3324,16 +3514,19 @@
         <v>7.34990043222603</v>
       </c>
       <c r="L66">
+        <v>0.354553807632708</v>
+      </c>
+      <c r="M66">
         <v>0.53097387712597299</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1.6735926201434701</v>
       </c>
-      <c r="N66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1991</v>
       </c>
@@ -3368,16 +3561,19 @@
         <v>1.5607884565374699</v>
       </c>
       <c r="L67">
+        <v>9.3985655752958697E-2</v>
+      </c>
+      <c r="M67">
         <v>0.89426558962428704</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>2.45316996735083</v>
       </c>
-      <c r="N67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1992</v>
       </c>
@@ -3412,16 +3608,19 @@
         <v>1.2849466443350399</v>
       </c>
       <c r="L68">
+        <v>7.4975005990569304E-2</v>
+      </c>
+      <c r="M68">
         <v>-0.205130525407445</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>1.6556381030193199</v>
       </c>
-      <c r="N68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1993</v>
       </c>
@@ -3456,16 +3655,19 @@
         <v>1.3374565979930499</v>
       </c>
       <c r="L69">
+        <v>8.9727059741245799E-2</v>
+      </c>
+      <c r="M69">
         <v>-0.67062462382747001</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>2.7530518808718099</v>
       </c>
-      <c r="N69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1994</v>
       </c>
@@ -3500,16 +3702,19 @@
         <v>1.39990151168725</v>
       </c>
       <c r="L70">
+        <v>9.4385987977564798E-2</v>
+      </c>
+      <c r="M70">
         <v>-0.453414970530649</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>1.9717399919184799</v>
       </c>
-      <c r="N70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1995</v>
       </c>
@@ -3544,16 +3749,19 @@
         <v>0.86959891486091001</v>
       </c>
       <c r="L71">
+        <v>5.3920255145615201E-2</v>
+      </c>
+      <c r="M71">
         <v>0.23644673937218999</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>1.91457769382127</v>
       </c>
-      <c r="N71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1996</v>
       </c>
@@ -3588,16 +3796,19 @@
         <v>2.0657700889997601</v>
       </c>
       <c r="L72">
+        <v>0.11144237128213</v>
+      </c>
+      <c r="M72">
         <v>0.487220616392953</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>1.6875074421180201</v>
       </c>
-      <c r="N72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1997</v>
       </c>
@@ -3632,16 +3843,19 @@
         <v>1.2635148186585301</v>
       </c>
       <c r="L73">
+        <v>6.9801021194652202E-2</v>
+      </c>
+      <c r="M73">
         <v>1.0751578531632</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>4.3642407433729504</v>
       </c>
-      <c r="N73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1998</v>
       </c>
@@ -3676,16 +3890,19 @@
         <v>0.87771397287602704</v>
       </c>
       <c r="L74">
+        <v>7.2598343496776394E-2</v>
+      </c>
+      <c r="M74">
         <v>-0.61855204334206804</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>3.2722480567264198</v>
       </c>
-      <c r="N74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1999</v>
       </c>
@@ -3720,16 +3937,19 @@
         <v>4.7468065022388402</v>
       </c>
       <c r="L75">
+        <v>0.277983885739428</v>
+      </c>
+      <c r="M75">
         <v>-7.9321627672855402E-2</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>1.6773859422630699</v>
       </c>
-      <c r="N75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2000</v>
       </c>
@@ -3764,16 +3984,19 @@
         <v>2.9047625470157499</v>
       </c>
       <c r="L76">
+        <v>0.111357582787646</v>
+      </c>
+      <c r="M76">
         <v>0.120192269347785</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>1.8367178439733201</v>
       </c>
-      <c r="N76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2001</v>
       </c>
@@ -3808,16 +4031,19 @@
         <v>2.86572535637695</v>
       </c>
       <c r="L77">
+        <v>0.126187818422587</v>
+      </c>
+      <c r="M77">
         <v>-0.95022482203423997</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>2.42644588355861</v>
       </c>
-      <c r="N77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2002</v>
       </c>
@@ -3852,16 +4078,19 @@
         <v>2.6585520951119701</v>
       </c>
       <c r="L78">
+        <v>0.112013711391256</v>
+      </c>
+      <c r="M78">
         <v>-1.09587730634035</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>3.1191484025636398</v>
       </c>
-      <c r="N78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2003</v>
       </c>
@@ -3896,16 +4125,19 @@
         <v>1.8422897565024501</v>
       </c>
       <c r="L79">
+        <v>6.8917716426157002E-2</v>
+      </c>
+      <c r="M79">
         <v>-0.13114051582891001</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>2.6554131796018301</v>
       </c>
-      <c r="N79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2004</v>
       </c>
@@ -3940,16 +4172,19 @@
         <v>3.1929553641521</v>
       </c>
       <c r="L80">
+        <v>9.5483857553965407E-2</v>
+      </c>
+      <c r="M80">
         <v>-0.23361214527197599</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>2.04935020553761</v>
       </c>
-      <c r="N80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2005</v>
       </c>
@@ -3984,16 +4219,19 @@
         <v>6.1770594219201902</v>
       </c>
       <c r="L81">
+        <v>0.125571224603546</v>
+      </c>
+      <c r="M81">
         <v>-0.58566535117113505</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>2.1951403923187498</v>
       </c>
-      <c r="N81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2006</v>
       </c>
@@ -4028,16 +4266,19 @@
         <v>4.67656425902977</v>
       </c>
       <c r="L82">
+        <v>7.6150060359469696E-2</v>
+      </c>
+      <c r="M82">
         <v>0.52556780972831296</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>1.73765223459366</v>
       </c>
-      <c r="N82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2007</v>
       </c>
@@ -4072,16 +4313,19 @@
         <v>10.8709880772576</v>
       </c>
       <c r="L83">
+        <v>0.15892061691045001</v>
+      </c>
+      <c r="M83">
         <v>0.37287803317962698</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>2.2522504121987201</v>
       </c>
-      <c r="N83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2008</v>
       </c>
@@ -4116,16 +4360,19 @@
         <v>28.541859942066601</v>
       </c>
       <c r="L84">
+        <v>0.30456821356290997</v>
+      </c>
+      <c r="M84">
         <v>-0.50621175563100396</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>2.2863105376508002</v>
       </c>
-      <c r="N84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2009</v>
       </c>
@@ -4160,16 +4407,19 @@
         <v>12.868451292373001</v>
       </c>
       <c r="L85">
+        <v>0.20846521585223601</v>
+      </c>
+      <c r="M85">
         <v>-0.33565806862655101</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>1.52474136302296</v>
       </c>
-      <c r="N85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2010</v>
       </c>
@@ -4204,16 +4454,19 @@
         <v>5.0228801400504004</v>
       </c>
       <c r="L86">
+        <v>6.4342753101559402E-2</v>
+      </c>
+      <c r="M86">
         <v>0.96808168496937197</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>2.9217229548678398</v>
       </c>
-      <c r="N86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2011</v>
       </c>
@@ -4248,16 +4501,19 @@
         <v>5.7868209248797404</v>
       </c>
       <c r="L87">
+        <v>5.4578993969785397E-2</v>
+      </c>
+      <c r="M87">
         <v>-0.90823985925300998</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>4.2010502093706403</v>
       </c>
-      <c r="N87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2012</v>
       </c>
@@ -4292,16 +4548,19 @@
         <v>7.5846638035389597</v>
       </c>
       <c r="L88">
+        <v>6.9635508153146994E-2</v>
+      </c>
+      <c r="M88">
         <v>-0.16280293431501899</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>2.8513469888677299</v>
       </c>
-      <c r="N88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2013</v>
       </c>
@@ -4336,16 +4595,19 @@
         <v>3.3929338567889502</v>
       </c>
       <c r="L89">
+        <v>3.2181908182101197E-2</v>
+      </c>
+      <c r="M89">
         <v>-0.19802698718980399</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>2.1374713345416301</v>
       </c>
-      <c r="N89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2014</v>
       </c>
@@ -4380,16 +4642,19 @@
         <v>14.6926701544804</v>
       </c>
       <c r="L90">
+        <v>0.15199717642848601</v>
+      </c>
+      <c r="M90">
         <v>-1.54605885119835</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>4.1371439538638297</v>
       </c>
-      <c r="N90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2015</v>
       </c>
@@ -4424,16 +4689,19 @@
         <v>8.6535586031698504</v>
       </c>
       <c r="L91">
+        <v>0.168909064197066</v>
+      </c>
+      <c r="M91">
         <v>-0.26898518738254701</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>2.1863462411865302</v>
       </c>
-      <c r="N91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -4468,16 +4736,19 @@
         <v>7.2749446501035502</v>
       </c>
       <c r="L92">
+        <v>0.17642121163293401</v>
+      </c>
+      <c r="M92">
         <v>-0.70516997476573995</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>2.5938465819083998</v>
       </c>
-      <c r="N92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2017</v>
       </c>
@@ -4512,16 +4783,19 @@
         <v>4.5580499680262001</v>
       </c>
       <c r="L93">
+        <v>8.5812433748294795E-2</v>
+      </c>
+      <c r="M93">
         <v>0.48724642357273901</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>2.5552005364686798</v>
       </c>
-      <c r="N93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2018</v>
       </c>
@@ -4556,16 +4830,19 @@
         <v>6.6145554854418798</v>
       </c>
       <c r="L94">
+        <v>9.5682897516814205E-2</v>
+      </c>
+      <c r="M94">
         <v>-0.32962843707957301</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>2.3066623592811202</v>
       </c>
-      <c r="N94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -4600,16 +4877,19 @@
         <v>4.0935426696248296</v>
       </c>
       <c r="L95">
+        <v>6.4825888062451195E-2</v>
+      </c>
+      <c r="M95">
         <v>0.57373026810343797</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>2.1668840080791498</v>
       </c>
-      <c r="N95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -4644,16 +4924,19 @@
         <v>10.557781754711799</v>
       </c>
       <c r="L96">
+        <v>0.25048590222904199</v>
+      </c>
+      <c r="M96">
         <v>0.30521470723676197</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>3.08437080926547</v>
       </c>
-      <c r="N96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -4688,1336 +4971,1429 @@
         <v>4.5236651250137303</v>
       </c>
       <c r="L97">
+        <v>7.9130311479582799E-2</v>
+      </c>
+      <c r="M97">
         <v>3.2565302225101101E-15</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>1</v>
       </c>
-      <c r="N97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="O97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>1992</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>3.45</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>3.5762499999999999</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>3.79</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98">
         <v>3.8875000000000002</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98">
         <v>3.98</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98">
         <v>3.7437499999999999</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98">
         <v>3.79</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98">
         <v>3.45</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98">
         <v>3.6968750000000002E-2</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98">
         <v>0.19227259295073701</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L98">
+        <v>5.1358288601198697E-2</v>
+      </c>
+      <c r="M98">
         <v>-0.37396932244035203</v>
       </c>
-      <c r="M98" s="1">
+      <c r="N98">
         <v>1.7468724847261099</v>
       </c>
-      <c r="N98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="O98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>1993</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>3.21</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>3.4775</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>3.62</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99">
         <v>3.7675000000000001</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99">
         <v>3.82</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99">
         <v>3.5975000000000001</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99">
         <v>3.62</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99">
         <v>3.61</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99">
         <v>3.7565909090909101E-2</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K99">
         <v>0.19381926914243899</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L99">
+        <v>5.3876099831115701E-2</v>
+      </c>
+      <c r="M99">
         <v>-0.62283304819991503</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99">
         <v>2.3405616275852101</v>
       </c>
-      <c r="N99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="O99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>1994</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>3.07</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>3.1475</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <v>3.24</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100">
         <v>3.4224999999999999</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100">
         <v>3.6</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100">
         <v>3.2850000000000001</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100">
         <v>3.24</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100">
         <v>3.11</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100">
         <v>3.18636363636364E-2</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100">
         <v>0.17850388332928899</v>
       </c>
-      <c r="L100" s="1">
+      <c r="L100">
+        <v>5.4339081683193E-2</v>
+      </c>
+      <c r="M100">
         <v>0.51879726435251305</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100">
         <v>1.95311714872375</v>
       </c>
-      <c r="N100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="O100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>1995</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>3.32</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>3.4024999999999999</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>3.4950000000000001</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101">
         <v>3.7324999999999999</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101">
         <v>3.85</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101">
         <v>3.5566666666666702</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101">
         <v>3.4950000000000001</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101">
         <v>3.38</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101">
         <v>3.8296969696969697E-2</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K101">
         <v>0.19569611569208401</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L101">
+        <v>5.50223380577557E-2</v>
+      </c>
+      <c r="M101">
         <v>0.35176643252304701</v>
       </c>
-      <c r="M101" s="1">
+      <c r="N101">
         <v>1.5601275950537301</v>
       </c>
-      <c r="N101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="O101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>1996</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>3.59</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>3.79</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>3.8149999999999999</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102">
         <v>3.9125000000000001</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102">
         <v>4.41</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102">
         <v>3.9024999999999999</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102">
         <v>3.8149999999999999</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102">
         <v>3.81</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102">
         <v>5.6893181818181898E-2</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K102">
         <v>0.238522916756822</v>
       </c>
-      <c r="L102" s="1">
+      <c r="L102">
+        <v>6.1120542410460499E-2</v>
+      </c>
+      <c r="M102">
         <v>1.1690789756442199</v>
       </c>
-      <c r="M102" s="1">
+      <c r="N102">
         <v>3.2963022920718199</v>
       </c>
-      <c r="N102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="O102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>1997</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>3.43</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>3.5</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>3.66</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103">
         <v>3.8250000000000002</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103">
         <v>3.7608333333333301</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103">
         <v>3.66</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103">
         <v>3.5</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103">
         <v>0.105826515151515</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K103">
         <v>0.325309875582521</v>
       </c>
-      <c r="L103" s="1">
+      <c r="L103">
+        <v>8.6499412962336597E-2</v>
+      </c>
+      <c r="M103">
         <v>0.98748981212759201</v>
       </c>
-      <c r="M103" s="1">
+      <c r="N103">
         <v>2.5374399612829199</v>
       </c>
-      <c r="N103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="O103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>1998</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>2.57</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>2.6324999999999998</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>2.665</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104">
         <v>2.7725</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104">
         <v>3.46</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104">
         <v>2.75416666666667</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104">
         <v>2.665</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104">
         <v>2.67</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104">
         <v>6.2535606060606097E-2</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K104">
         <v>0.25007120198176802</v>
       </c>
-      <c r="L104" s="1">
+      <c r="L104">
+        <v>9.0797410704424E-2</v>
+      </c>
+      <c r="M104">
         <v>2.0838297843323401</v>
       </c>
-      <c r="M104" s="1">
+      <c r="N104">
         <v>6.4416772549088197</v>
       </c>
-      <c r="N104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="O104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>1999</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>2.57</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>2.67</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105">
         <v>3.21</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105">
         <v>3.9075000000000002</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105">
         <v>4.43</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105">
         <v>3.3424999999999998</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105">
         <v>3.21</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105">
         <v>2.64</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105">
         <v>0.46518409090909102</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K105">
         <v>0.68204405349588004</v>
       </c>
-      <c r="L105" s="1">
+      <c r="L105">
+        <v>0.20405207284843099</v>
+      </c>
+      <c r="M105">
         <v>0.338829326363283</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105">
         <v>1.66389620382526</v>
       </c>
-      <c r="N105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="O105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>2000</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>4.54</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>4.8574999999999999</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>5.26</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106">
         <v>5.6</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106">
         <v>5.92</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106">
         <v>5.2350000000000003</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106">
         <v>5.26</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106">
         <v>4.58</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106">
         <v>0.25024545454545399</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K106">
         <v>0.50024539432707904</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L106">
+        <v>9.5557859470311104E-2</v>
+      </c>
+      <c r="M106">
         <v>-0.14232234601419</v>
       </c>
-      <c r="M106" s="1">
+      <c r="N106">
         <v>1.6693463757731799</v>
       </c>
-      <c r="N106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="O106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>2001</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>3.68</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>4.6449999999999996</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>4.76</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107">
         <v>4.9574999999999996</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107">
         <v>5.1100000000000003</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107">
         <v>4.66916666666667</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107">
         <v>4.76</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107">
         <v>4.9800000000000004</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107">
         <v>0.18759015151515199</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K107">
         <v>0.43311678738551701</v>
       </c>
-      <c r="L107" s="1">
+      <c r="L107">
+        <v>9.2761046736145103E-2</v>
+      </c>
+      <c r="M107">
         <v>-1.33096580866501</v>
       </c>
-      <c r="M107" s="1">
+      <c r="N107">
         <v>3.6651495688271001</v>
       </c>
-      <c r="N107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="O107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>2002</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>3.57</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>3.9750000000000001</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108">
         <v>4.5250000000000004</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108">
         <v>4.7225000000000001</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108">
         <v>5.76</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108">
         <v>4.4266666666666703</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108">
         <v>4.5250000000000004</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108">
         <v>3.57</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108">
         <v>0.38109696969696999</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K108">
         <v>0.61733051900660896</v>
       </c>
-      <c r="L108" s="1">
+      <c r="L108">
+        <v>0.13945719555872199</v>
+      </c>
+      <c r="M108">
         <v>0.37609429330372601</v>
       </c>
-      <c r="M108" s="1">
+      <c r="N108">
         <v>3.0269593200488498</v>
       </c>
-      <c r="N108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="O108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>2003</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>4.67</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>4.8025000000000002</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109">
         <v>4.97</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109">
         <v>5.0824999999999996</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109">
         <v>5.44</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109">
         <v>4.9808333333333303</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109">
         <v>4.97</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109">
         <v>5.01</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109">
         <v>5.7953787878787903E-2</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K109">
         <v>0.24073592976285799</v>
       </c>
-      <c r="L109" s="1">
+      <c r="L109">
+        <v>4.8332460384043797E-2</v>
+      </c>
+      <c r="M109">
         <v>0.48187249003275401</v>
       </c>
-      <c r="M109" s="1">
+      <c r="N109">
         <v>2.27426905649817</v>
       </c>
-      <c r="N109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="O109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>2004</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>5.14</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>5.4249999999999998</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>5.8049999999999997</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110">
         <v>6.4649999999999999</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110">
         <v>6.94</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110">
         <v>5.8908333333333296</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110">
         <v>5.8049999999999997</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110">
         <v>5.14</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110">
         <v>0.37939015151515199</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K110">
         <v>0.61594654923552505</v>
       </c>
-      <c r="L110" s="1">
+      <c r="L110">
+        <v>0.10456017245474999</v>
+      </c>
+      <c r="M110">
         <v>0.38228499934914201</v>
       </c>
-      <c r="M110" s="1">
+      <c r="N110">
         <v>1.76487810189963</v>
       </c>
-      <c r="N110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="O110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>2005</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>5.82</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>6.5274999999999999</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111">
         <v>7.0750000000000002</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111">
         <v>7.3425000000000002</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111">
         <v>8.11</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111">
         <v>7.0324999999999998</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111">
         <v>7.0750000000000002</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111">
         <v>7.22</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111">
         <v>0.50456590909090904</v>
       </c>
-      <c r="K111" s="1">
+      <c r="K111">
         <v>0.71032802921672</v>
       </c>
-      <c r="L111" s="1">
+      <c r="L111">
+        <v>0.101006474115424</v>
+      </c>
+      <c r="M111">
         <v>-0.101740065239671</v>
       </c>
-      <c r="M111" s="1">
+      <c r="N111">
         <v>2.1632366290116098</v>
       </c>
-      <c r="N111" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="O111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>2006</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>7.29</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>7.7324999999999999</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>7.9249999999999998</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112">
         <v>8.5225000000000009</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112">
         <v>8.83</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112">
         <v>8.0491666666666699</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112">
         <v>7.9249999999999998</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112">
         <v>7.34</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112">
         <v>0.27542651515151501</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K112">
         <v>0.52481093276675905</v>
       </c>
-      <c r="L112" s="1">
+      <c r="L112">
+        <v>6.5200654241651307E-2</v>
+      </c>
+      <c r="M112">
         <v>-2.2989041377564801E-2</v>
       </c>
-      <c r="M112" s="1">
+      <c r="N112">
         <v>1.6967224269232799</v>
       </c>
-      <c r="N112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="O112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>2007</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>7.17</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>7.7050000000000001</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>8.35</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113">
         <v>8.7475000000000005</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113">
         <v>10.27</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113">
         <v>8.4108333333333292</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113">
         <v>8.35</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113">
         <v>7.66</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113">
         <v>0.82486287878787801</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K113">
         <v>0.90821962034954895</v>
       </c>
-      <c r="L113" s="1">
+      <c r="L113">
+        <v>0.107982120719257</v>
+      </c>
+      <c r="M113">
         <v>0.55555556521750904</v>
       </c>
-      <c r="M113" s="1">
+      <c r="N113">
         <v>2.61145384188137</v>
       </c>
-      <c r="N113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="O113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>2008</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>7.38</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>10.5975</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114">
         <v>11.89</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114">
         <v>13.19</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114">
         <v>14.08</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114">
         <v>11.5908333333333</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114">
         <v>11.89</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114">
         <v>10.5</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114">
         <v>4.0723901515151502</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K114">
         <v>2.0180163902989401</v>
       </c>
-      <c r="L114" s="1">
+      <c r="L114">
+        <v>0.17410451278731201</v>
+      </c>
+      <c r="M114">
         <v>-0.65036889427151501</v>
       </c>
-      <c r="M114" s="1">
+      <c r="N114">
         <v>2.5966769585177101</v>
       </c>
-      <c r="N114" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="O114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>2009</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>5.83</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>6.415</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115">
         <v>7.51</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115">
         <v>8.5525000000000002</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115">
         <v>9.16</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115">
         <v>7.4908333333333301</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115">
         <v>7.51</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115">
         <v>6.03</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115">
         <v>1.46948106060606</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K115">
         <v>1.21222153940856</v>
       </c>
-      <c r="L115" s="1">
+      <c r="L115">
+        <v>0.161827327543695</v>
+      </c>
+      <c r="M115">
         <v>-5.1089777371681001E-2</v>
       </c>
-      <c r="M115" s="1">
+      <c r="N115">
         <v>1.37003352718631</v>
       </c>
-      <c r="N115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="O115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>2010</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>8.85</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>9.07</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116">
         <v>9.31</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116">
         <v>9.6274999999999995</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116">
         <v>10.039999999999999</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116">
         <v>9.3808333333333298</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116">
         <v>9.31</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116">
         <v>9.34</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116">
         <v>0.17124469696969699</v>
       </c>
-      <c r="K116" s="1">
+      <c r="K116">
         <v>0.41381722652603098</v>
       </c>
-      <c r="L116" s="1">
+      <c r="L116">
+        <v>4.4113056039019098E-2</v>
+      </c>
+      <c r="M116">
         <v>0.55036001874727003</v>
       </c>
-      <c r="M116" s="1">
+      <c r="N116">
         <v>1.9427263049658501</v>
       </c>
-      <c r="N116" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="O116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>2011</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>10.81</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>13.852499999999999</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>16.29</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117">
         <v>17.72</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117">
         <v>18.05</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117">
         <v>15.553333333333301</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117">
         <v>16.29</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117">
         <v>16.29</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117">
         <v>6.8343878787878802</v>
       </c>
-      <c r="K117" s="1">
+      <c r="K117">
         <v>2.6142662218656798</v>
       </c>
-      <c r="L117" s="1">
+      <c r="L117">
+        <v>0.16808398340328001</v>
+      </c>
+      <c r="M117">
         <v>-0.72876539767658099</v>
       </c>
-      <c r="M117" s="1">
+      <c r="N117">
         <v>2.0173446466578699</v>
       </c>
-      <c r="N117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="O117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>2012</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>16.71</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>17.412500000000001</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>18.36</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118">
         <v>18.844999999999999</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118">
         <v>19.57</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118">
         <v>18.145</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118">
         <v>18.36</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118">
         <v>17.46</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118">
         <v>0.94817272727272806</v>
       </c>
-      <c r="K118" s="1">
+      <c r="K118">
         <v>0.97374161217066602</v>
       </c>
-      <c r="L118" s="1">
+      <c r="L118">
+        <v>5.3664459199265102E-2</v>
+      </c>
+      <c r="M118">
         <v>-5.5707440751420999E-2</v>
       </c>
-      <c r="M118" s="1">
+      <c r="N118">
         <v>1.7235797668624799</v>
       </c>
-      <c r="N118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="O118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>2013</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>16.489999999999998</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>16.97</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>17.350000000000001</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119">
         <v>17.72</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119">
         <v>18.309999999999999</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119">
         <v>17.339166666666699</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119">
         <v>17.350000000000001</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119">
         <v>17.72</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119">
         <v>0.30228106060606003</v>
       </c>
-      <c r="K119" s="1">
+      <c r="K119">
         <v>0.54980092816042103</v>
       </c>
-      <c r="L119" s="1">
+      <c r="L119">
+        <v>3.1708613149060601E-2</v>
+      </c>
+      <c r="M119">
         <v>9.4448296743408197E-2</v>
       </c>
-      <c r="M119" s="1">
+      <c r="N119">
         <v>1.8987745674719101</v>
       </c>
-      <c r="N119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="O119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>2014</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>15.23</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>16.364999999999998</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>17.47</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120">
         <v>17.7</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120">
         <v>17.96</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120">
         <v>16.997499999999999</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120">
         <v>17.47</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120">
         <v>17.760000000000002</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120">
         <v>0.85925681818181898</v>
       </c>
-      <c r="K120" s="1">
+      <c r="K120">
         <v>0.92696106616287799</v>
       </c>
-      <c r="L120" s="1">
+      <c r="L120">
+        <v>5.4535141412729998E-2</v>
+      </c>
+      <c r="M120">
         <v>-0.682464909426582</v>
       </c>
-      <c r="M120" s="1">
+      <c r="N120">
         <v>2.04815229476745</v>
       </c>
-      <c r="N120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="O120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>2015</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>8.7899999999999991</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121">
         <v>10.154999999999999</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121">
         <v>11.5275</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121">
         <v>15.5</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121">
         <v>10.9583333333333</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121">
         <v>10.154999999999999</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121">
         <v>15.5</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121">
         <v>4.9964878787878799</v>
       </c>
-      <c r="K121" s="1">
+      <c r="K121">
         <v>2.2352825053643399</v>
       </c>
-      <c r="L121" s="1">
+      <c r="L121">
+        <v>0.20398015258077601</v>
+      </c>
+      <c r="M121">
         <v>1.0819769740894001</v>
       </c>
-      <c r="M121" s="1">
+      <c r="N121">
         <v>2.7371863937552701</v>
       </c>
-      <c r="N121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="O121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>2016</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>6.68</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>7.0225</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>7.29</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122">
         <v>7.9450000000000003</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122">
         <v>8.4600000000000009</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122">
         <v>7.4391666666666696</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122">
         <v>7.29</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122">
         <v>8.4600000000000009</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122">
         <v>0.33489924242424302</v>
       </c>
-      <c r="K122" s="1">
+      <c r="K122">
         <v>0.57870479730536395</v>
       </c>
-      <c r="L122" s="1">
+      <c r="L122">
+        <v>7.7791616082271406E-2</v>
+      </c>
+      <c r="M122">
         <v>0.28249943989529203</v>
       </c>
-      <c r="M122" s="1">
+      <c r="N122">
         <v>1.7723011933522099</v>
       </c>
-      <c r="N122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="O122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>2017</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>5.5236363636363599</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>5.7166718750000003</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>6.6075776397515504</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123">
         <v>8.8880681818181806</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123">
         <v>10.709047619047601</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123">
         <v>7.2474446571695204</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123">
         <v>6.6075776397515504</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123">
         <v>9.1740909090909106</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123">
         <v>3.3785477494668501</v>
       </c>
-      <c r="K123" s="1">
+      <c r="K123">
         <v>1.8380826285743701</v>
       </c>
-      <c r="L123" s="1">
+      <c r="L123">
+        <v>0.25361802890844398</v>
+      </c>
+      <c r="M123">
         <v>0.67065260702075802</v>
       </c>
-      <c r="M123" s="1">
+      <c r="N123">
         <v>1.95432288523961</v>
       </c>
-      <c r="N123" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="O123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>2018</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>7.4752380952380904</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>8.8670807453416103</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>10.003962450592899</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124">
         <v>10.5008586956522</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124">
         <v>11.6695652173913</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124">
         <v>9.7954147766484603</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H124">
         <v>10.003962450592899</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124">
         <v>11.6695652173913</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J124">
         <v>1.4595064221787</v>
       </c>
-      <c r="K124" s="1">
+      <c r="K124">
         <v>1.2081003361388101</v>
       </c>
-      <c r="L124" s="1">
+      <c r="L124">
+        <v>0.123333249656649</v>
+      </c>
+      <c r="M124">
         <v>-0.39157544508539799</v>
       </c>
-      <c r="M124" s="1">
+      <c r="N124">
         <v>2.3533018598212099</v>
       </c>
-      <c r="N124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="O124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>2019</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>4.2802272727272701</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>4.8797826086956597</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>5.1624999999999996</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125">
         <v>5.6844046442687803</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125">
         <v>8.2856521739130393</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125">
         <v>5.4446242432084802</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125">
         <v>5.1624999999999996</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125">
         <v>8.2856521739130393</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J125">
         <v>1.2315691630202801</v>
       </c>
-      <c r="K125" s="1">
+      <c r="K125">
         <v>1.1097608584827101</v>
       </c>
-      <c r="L125" s="1">
+      <c r="L125">
+        <v>0.20382689583528199</v>
+      </c>
+      <c r="M125">
         <v>1.4090862630151</v>
       </c>
-      <c r="M125" s="1">
+      <c r="N125">
         <v>4.6264001714027696</v>
       </c>
-      <c r="N125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="O125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>2020</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>2.0321428571428601</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>2.2468083003952599</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126">
         <v>3.45228896103897</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126">
         <v>5.2157262845849797</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126">
         <v>11.608913043478299</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126">
         <v>4.3664239953886703</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126">
         <v>3.45228896103897</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126">
         <v>4.9136956521739101</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J126">
         <v>7.8092574823601</v>
       </c>
-      <c r="K126" s="1">
+      <c r="K126">
         <v>2.79450487248817</v>
       </c>
-      <c r="L126" s="1">
+      <c r="L126">
+        <v>0.63999851490359305</v>
+      </c>
+      <c r="M126">
         <v>1.5237158772850901</v>
       </c>
-      <c r="M126" s="1">
+      <c r="N126">
         <v>4.7253608301569301</v>
       </c>
-      <c r="N126" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="O126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>2021</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>7.1687500000000002</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>10.480372023809499</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>13.791994047618999</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127">
         <v>17.103616071428601</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127">
         <v>20.415238095238099</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127">
         <v>13.791994047618999</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127">
         <v>13.791994047618999</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127">
         <v>20.415238095238099</v>
       </c>
-      <c r="J127" s="1">
+      <c r="J127">
         <v>87.734723428642297</v>
       </c>
-      <c r="K127" s="1">
+      <c r="K127">
         <v>9.3666815590497308</v>
       </c>
-      <c r="L127" s="1">
+      <c r="L127">
+        <v>0.67913903723491897</v>
+      </c>
+      <c r="M127">
         <v>1.9564462334292701E-16</v>
       </c>
-      <c r="M127" s="1">
+      <c r="N127">
         <v>1</v>
       </c>
-      <c r="N127" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1991</v>
       </c>
@@ -6052,16 +6428,19 @@
         <v>0.21788864752536599</v>
       </c>
       <c r="L128">
+        <v>0.15018998864887101</v>
+      </c>
+      <c r="M128">
         <v>0.71305954829431495</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>2.3881057502072598</v>
       </c>
-      <c r="N128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1992</v>
       </c>
@@ -6096,16 +6475,19 @@
         <v>0.419572387003251</v>
       </c>
       <c r="L129">
+        <v>0.239662637787669</v>
+      </c>
+      <c r="M129">
         <v>0.24485348968786799</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>1.68095903967284</v>
       </c>
-      <c r="N129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1993</v>
       </c>
@@ -6140,16 +6522,19 @@
         <v>0.177770972423407</v>
       </c>
       <c r="L130">
+        <v>8.4082285644274196E-2</v>
+      </c>
+      <c r="M130">
         <v>-0.57873199349320303</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>2.7231126537521599</v>
       </c>
-      <c r="N130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1994</v>
       </c>
@@ -6184,16 +6569,19 @@
         <v>0.37608126705782402</v>
       </c>
       <c r="L131">
+        <v>0.196399904462601</v>
+      </c>
+      <c r="M131">
         <v>0.81600949189550598</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>2.9474328645866699</v>
       </c>
-      <c r="N131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1995</v>
       </c>
@@ -6228,16 +6616,19 @@
         <v>0.33853734804704699</v>
       </c>
       <c r="L132">
+        <v>0.19861678701479701</v>
+      </c>
+      <c r="M132">
         <v>2.1542064290543399</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>6.7605885560691998</v>
       </c>
-      <c r="N132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1996</v>
       </c>
@@ -6272,16 +6663,19 @@
         <v>0.64802199605215904</v>
       </c>
       <c r="L133">
+        <v>0.240956727878606</v>
+      </c>
+      <c r="M133">
         <v>0.64516743416711497</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>2.3455700761786402</v>
       </c>
-      <c r="N133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1997</v>
       </c>
@@ -6316,16 +6710,19 @@
         <v>0.45347987553385899</v>
       </c>
       <c r="L134">
+        <v>0.18432595866052301</v>
+      </c>
+      <c r="M134">
         <v>0.57424936798371595</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>1.9307765362994</v>
       </c>
-      <c r="N134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1998</v>
       </c>
@@ -6360,16 +6757,19 @@
         <v>0.19430622098688599</v>
       </c>
       <c r="L135">
+        <v>9.3064942084439897E-2</v>
+      </c>
+      <c r="M135">
         <v>-0.176282131156108</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>2.7885013044085198</v>
       </c>
-      <c r="N135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1999</v>
       </c>
@@ -6404,16 +6804,19 @@
         <v>0.33809820477904101</v>
       </c>
       <c r="L136">
+        <v>0.14953081407593599</v>
+      </c>
+      <c r="M136">
         <v>-0.10054925797714</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>2.00669856811037</v>
       </c>
-      <c r="N136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2000</v>
       </c>
@@ -6448,16 +6851,19 @@
         <v>1.7761551154822099</v>
       </c>
       <c r="L137">
+        <v>0.41233062496631001</v>
+      </c>
+      <c r="M137">
         <v>1.40445199106908</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>4.8001996127428503</v>
       </c>
-      <c r="N137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2001</v>
       </c>
@@ -6492,16 +6898,19 @@
         <v>1.7937501914943701</v>
       </c>
       <c r="L138">
+        <v>0.45308243672756598</v>
+      </c>
+      <c r="M138">
         <v>1.0578389806175801</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>3.3968907274596698</v>
       </c>
-      <c r="N138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2002</v>
       </c>
@@ -6536,16 +6945,19 @@
         <v>0.72185124832992598</v>
       </c>
       <c r="L139">
+        <v>0.21478109579709001</v>
+      </c>
+      <c r="M139">
         <v>0.22033526621878199</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>2.5677928779025101</v>
       </c>
-      <c r="N139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2003</v>
       </c>
@@ -6580,16 +6992,19 @@
         <v>0.92801037245352302</v>
       </c>
       <c r="L140">
+        <v>0.168506044425589</v>
+      </c>
+      <c r="M140">
         <v>1.2820407359539601</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>4.4641775270894897</v>
       </c>
-      <c r="N140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2004</v>
       </c>
@@ -6624,16 +7039,19 @@
         <v>0.47723910512650602</v>
       </c>
       <c r="L141">
+        <v>8.0776566639908801E-2</v>
+      </c>
+      <c r="M141">
         <v>-0.22193143074314101</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>1.58431338152543</v>
       </c>
-      <c r="N141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2005</v>
       </c>
@@ -6668,16 +7086,19 @@
         <v>2.8215377581696202</v>
       </c>
       <c r="L142">
+        <v>0.31721644218202</v>
+      </c>
+      <c r="M142">
         <v>0.65118864345852401</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>1.82146343449534</v>
       </c>
-      <c r="N142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2006</v>
       </c>
@@ -6712,16 +7133,19 @@
         <v>0.96620996100086798</v>
       </c>
       <c r="L143">
+        <v>0.14334726919322699</v>
+      </c>
+      <c r="M143">
         <v>8.7318117757593502E-2</v>
       </c>
-      <c r="M143">
+      <c r="N143">
         <v>3.11596107824445</v>
       </c>
-      <c r="N143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2007</v>
       </c>
@@ -6756,16 +7180,19 @@
         <v>0.62115176814113804</v>
       </c>
       <c r="L144">
+        <v>8.8969030028328594E-2</v>
+      </c>
+      <c r="M144">
         <v>-2.10563496046089E-2</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>1.8816815787914201</v>
       </c>
-      <c r="N144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2008</v>
       </c>
@@ -6800,16 +7227,19 @@
         <v>2.0999093517023</v>
       </c>
       <c r="L145">
+        <v>0.23706712452829601</v>
+      </c>
+      <c r="M145">
         <v>0.34237802579157101</v>
       </c>
-      <c r="M145">
+      <c r="N145">
         <v>2.0598974222375799</v>
       </c>
-      <c r="N145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2009</v>
       </c>
@@ -6844,16 +7274,19 @@
         <v>0.74637212198157199</v>
       </c>
       <c r="L146">
+        <v>0.18915869325575599</v>
+      </c>
+      <c r="M146">
         <v>0.76193493782708999</v>
       </c>
-      <c r="M146">
+      <c r="N146">
         <v>2.58298950849841</v>
       </c>
-      <c r="N146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2010</v>
       </c>
@@ -6888,16 +7321,19 @@
         <v>0.67303461239265705</v>
       </c>
       <c r="L147">
+        <v>0.15344631871978301</v>
+      </c>
+      <c r="M147">
         <v>0.782582224496854</v>
       </c>
-      <c r="M147">
+      <c r="N147">
         <v>2.9774052459879501</v>
       </c>
-      <c r="N147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2011</v>
       </c>
@@ -6932,16 +7368,19 @@
         <v>0.45928022763531601</v>
       </c>
       <c r="L148">
+        <v>0.114819925885438</v>
+      </c>
+      <c r="M148">
         <v>-0.66169654621370499</v>
       </c>
-      <c r="M148">
+      <c r="N148">
         <v>2.2458886680922401</v>
       </c>
-      <c r="N148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2012</v>
       </c>
@@ -6976,16 +7415,19 @@
         <v>0.48525630247453899</v>
       </c>
       <c r="L149">
+        <v>0.17630009925831799</v>
+      </c>
+      <c r="M149">
         <v>6.9367401661593803E-2</v>
       </c>
-      <c r="M149">
+      <c r="N149">
         <v>2.0846513758321201</v>
       </c>
-      <c r="N149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2013</v>
       </c>
@@ -7020,16 +7462,19 @@
         <v>0.30321710284265102</v>
       </c>
       <c r="L150">
+        <v>8.1383936003390403E-2</v>
+      </c>
+      <c r="M150">
         <v>0.332024286179044</v>
       </c>
-      <c r="M150">
+      <c r="N150">
         <v>2.0370365696744699</v>
       </c>
-      <c r="N150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2014</v>
       </c>
@@ -7064,16 +7509,19 @@
         <v>0.67800126991677101</v>
       </c>
       <c r="L151">
+        <v>0.15516177648889601</v>
+      </c>
+      <c r="M151">
         <v>0.92063460833964605</v>
       </c>
-      <c r="M151">
+      <c r="N151">
         <v>3.7584603753649</v>
       </c>
-      <c r="N151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2015</v>
       </c>
@@ -7108,16 +7556,19 @@
         <v>0.33323576885188</v>
       </c>
       <c r="L152">
+        <v>0.127503266444492</v>
+      </c>
+      <c r="M152">
         <v>-1.06946320723235</v>
       </c>
-      <c r="M152">
+      <c r="N152">
         <v>2.7845219518533799</v>
       </c>
-      <c r="N152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -7152,16 +7603,19 @@
         <v>0.55873904936929997</v>
       </c>
       <c r="L153">
+        <v>0.22417953956184</v>
+      </c>
+      <c r="M153">
         <v>0.27599451686721999</v>
       </c>
-      <c r="M153">
+      <c r="N153">
         <v>2.2555197238424398</v>
       </c>
-      <c r="N153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2017</v>
       </c>
@@ -7196,16 +7650,19 @@
         <v>0.134779593085745</v>
       </c>
       <c r="L154">
+        <v>4.5465306105958198E-2</v>
+      </c>
+      <c r="M154">
         <v>0.86218846164388196</v>
       </c>
-      <c r="M154">
+      <c r="N154">
         <v>2.9835495940832701</v>
       </c>
-      <c r="N154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2018</v>
       </c>
@@ -7240,16 +7697,19 @@
         <v>0.53261773584586702</v>
       </c>
       <c r="L155">
+        <v>0.16881183918846901</v>
+      </c>
+      <c r="M155">
         <v>0.90743423757137698</v>
       </c>
-      <c r="M155">
+      <c r="N155">
         <v>2.1822906736872199</v>
       </c>
-      <c r="N155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2019</v>
       </c>
@@ -7284,16 +7744,19 @@
         <v>0.26776746653557398</v>
       </c>
       <c r="L156">
+        <v>0.10433802261608099</v>
+      </c>
+      <c r="M156">
         <v>0.44231857759991899</v>
       </c>
-      <c r="M156">
+      <c r="N156">
         <v>2.29235443795783</v>
       </c>
-      <c r="N156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2020</v>
       </c>
@@ -7328,16 +7791,19 @@
         <v>0.32844044258377703</v>
       </c>
       <c r="L157">
+        <v>0.163436008565532</v>
+      </c>
+      <c r="M157">
         <v>0.69781638936249102</v>
       </c>
-      <c r="M157">
+      <c r="N157">
         <v>2.1964759504829199</v>
       </c>
-      <c r="N157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -7372,16 +7838,19 @@
         <v>1.6803834412702601</v>
       </c>
       <c r="L158">
+        <v>0.43594474629128699</v>
+      </c>
+      <c r="M158">
         <v>-5.2944399934673299E-16</v>
       </c>
-      <c r="M158">
+      <c r="N158">
         <v>1</v>
       </c>
-      <c r="N158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1990</v>
       </c>
@@ -7416,16 +7885,19 @@
         <v>6.7344610704265602</v>
       </c>
       <c r="L159">
+        <v>0.27467976222806401</v>
+      </c>
+      <c r="M159">
         <v>0.50993841425061903</v>
       </c>
-      <c r="M159">
+      <c r="N159">
         <v>1.8341758158216599</v>
       </c>
-      <c r="N159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1991</v>
       </c>
@@ -7460,16 +7932,19 @@
         <v>1.5926412215580901</v>
       </c>
       <c r="L160">
+        <v>7.4036161225292996E-2</v>
+      </c>
+      <c r="M160">
         <v>0.95623101179785897</v>
       </c>
-      <c r="M160">
+      <c r="N160">
         <v>3.44755511756845</v>
       </c>
-      <c r="N160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1992</v>
       </c>
@@ -7504,16 +7979,19 @@
         <v>1.2933009211808599</v>
       </c>
       <c r="L161">
+        <v>6.2919042626167099E-2</v>
+      </c>
+      <c r="M161">
         <v>-0.145964370154367</v>
       </c>
-      <c r="M161">
+      <c r="N161">
         <v>1.54262419308471</v>
       </c>
-      <c r="N161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1993</v>
       </c>
@@ -7548,16 +8026,19 @@
         <v>1.7187336776084501</v>
       </c>
       <c r="L162">
+        <v>9.3131058120208401E-2</v>
+      </c>
+      <c r="M162">
         <v>-0.89823409041542601</v>
       </c>
-      <c r="M162">
+      <c r="N162">
         <v>3.2652062133195501</v>
       </c>
-      <c r="N162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1994</v>
       </c>
@@ -7592,16 +8073,19 @@
         <v>1.6587143615865101</v>
       </c>
       <c r="L163">
+        <v>9.6530418715024602E-2</v>
+      </c>
+      <c r="M163">
         <v>-0.34185278529802998</v>
       </c>
-      <c r="M163">
+      <c r="N163">
         <v>1.9712899208566199</v>
       </c>
-      <c r="N163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1995</v>
       </c>
@@ -7636,16 +8120,19 @@
         <v>0.80403339294440801</v>
       </c>
       <c r="L164">
+        <v>4.3622392238597103E-2</v>
+      </c>
+      <c r="M164">
         <v>0.53951921592079199</v>
       </c>
-      <c r="M164">
+      <c r="N164">
         <v>2.4885916872558198</v>
       </c>
-      <c r="N164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1996</v>
       </c>
@@ -7680,16 +8167,19 @@
         <v>2.1530943201623001</v>
       </c>
       <c r="L165">
+        <v>9.7285683567842396E-2</v>
+      </c>
+      <c r="M165">
         <v>-1.7583737131512501E-2</v>
       </c>
-      <c r="M165">
+      <c r="N165">
         <v>1.84185226160438</v>
       </c>
-      <c r="N165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1997</v>
       </c>
@@ -7724,16 +8214,19 @@
         <v>1.7709601915345199</v>
       </c>
       <c r="L166">
+        <v>8.6031585695143298E-2</v>
+      </c>
+      <c r="M166">
         <v>1.42980785762155</v>
       </c>
-      <c r="M166">
+      <c r="N166">
         <v>4.8614299266988903</v>
       </c>
-      <c r="N166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1998</v>
       </c>
@@ -7768,16 +8261,19 @@
         <v>1.4508960136495801</v>
       </c>
       <c r="L167">
+        <v>0.10064600360596</v>
+      </c>
+      <c r="M167">
         <v>-0.52047588801074196</v>
       </c>
-      <c r="M167">
+      <c r="N167">
         <v>3.00888032453632</v>
       </c>
-      <c r="N167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1999</v>
       </c>
@@ -7812,16 +8308,19 @@
         <v>4.7528756048471896</v>
       </c>
       <c r="L168">
+        <v>0.247986900552921</v>
+      </c>
+      <c r="M168">
         <v>-0.12392247036675701</v>
       </c>
-      <c r="M168">
+      <c r="N168">
         <v>1.8211811149802499</v>
       </c>
-      <c r="N168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2000</v>
       </c>
@@ -7856,16 +8355,19 @@
         <v>2.6564210372741601</v>
       </c>
       <c r="L169">
+        <v>8.7627281453872996E-2</v>
+      </c>
+      <c r="M169">
         <v>1.5516736794535701E-2</v>
       </c>
-      <c r="M169">
+      <c r="N169">
         <v>2.04989800467935</v>
       </c>
-      <c r="N169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2001</v>
       </c>
@@ -7900,16 +8402,19 @@
         <v>3.5737794059544599</v>
       </c>
       <c r="L170">
+        <v>0.13814822301792201</v>
+      </c>
+      <c r="M170">
         <v>-0.92599623518539498</v>
       </c>
-      <c r="M170">
+      <c r="N170">
         <v>2.4535073255118802</v>
       </c>
-      <c r="N170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2002</v>
       </c>
@@ -7944,16 +8449,19 @@
         <v>3.1871773158116299</v>
       </c>
       <c r="L171">
+        <v>0.12204003889638999</v>
+      </c>
+      <c r="M171">
         <v>-0.91785620445634297</v>
       </c>
-      <c r="M171">
+      <c r="N171">
         <v>2.8126151872206702</v>
       </c>
-      <c r="N171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2003</v>
       </c>
@@ -7988,16 +8496,19 @@
         <v>2.2616698648595301</v>
       </c>
       <c r="L172">
+        <v>7.2644796802270595E-2</v>
+      </c>
+      <c r="M172">
         <v>0.44950682561993599</v>
       </c>
-      <c r="M172">
+      <c r="N172">
         <v>2.72682061379802</v>
       </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -8032,16 +8543,19 @@
         <v>5.8830666859937901</v>
       </c>
       <c r="L173">
+        <v>0.14200288624499499</v>
+      </c>
+      <c r="M173">
         <v>0.56084330187556797</v>
       </c>
-      <c r="M173">
+      <c r="N173">
         <v>2.3631209538184801</v>
       </c>
-      <c r="N173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2005</v>
       </c>
@@ -8076,16 +8590,19 @@
         <v>6.2683418864904903</v>
       </c>
       <c r="L174">
+        <v>0.111033012055787</v>
+      </c>
+      <c r="M174">
         <v>-7.1184785292858696E-2</v>
       </c>
-      <c r="M174">
+      <c r="N174">
         <v>1.8735456231016501</v>
       </c>
-      <c r="N174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2006</v>
       </c>
@@ -8120,16 +8637,19 @@
         <v>5.4771853715708598</v>
       </c>
       <c r="L175">
+        <v>8.2942612260359302E-2</v>
+      </c>
+      <c r="M175">
         <v>0.169386263088568</v>
       </c>
-      <c r="M175">
+      <c r="N175">
         <v>1.57942137162759</v>
       </c>
-      <c r="N175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2007</v>
       </c>
@@ -8164,16 +8684,19 @@
         <v>13.1950160618163</v>
       </c>
       <c r="L176">
+        <v>0.18238484566106999</v>
+      </c>
+      <c r="M176">
         <v>0.45420381158358802</v>
       </c>
-      <c r="M176">
+      <c r="N176">
         <v>1.93934160354023</v>
       </c>
-      <c r="N176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2008</v>
       </c>
@@ -8208,16 +8731,19 @@
         <v>29.258512617475901</v>
       </c>
       <c r="L177">
+        <v>0.29372350317278101</v>
+      </c>
+      <c r="M177">
         <v>-0.71376073426438302</v>
       </c>
-      <c r="M177">
+      <c r="N177">
         <v>2.5661553543264</v>
       </c>
-      <c r="N177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2009</v>
       </c>
@@ -8252,16 +8778,19 @@
         <v>13.792634958327</v>
       </c>
       <c r="L178">
+        <v>0.22353465447176499</v>
+      </c>
+      <c r="M178">
         <v>-0.46729332195328799</v>
       </c>
-      <c r="M178">
+      <c r="N178">
         <v>1.7298818264971201</v>
       </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2010</v>
       </c>
@@ -8296,16 +8825,19 @@
         <v>4.7635617503499796</v>
       </c>
       <c r="L179">
+        <v>5.9990584741618197E-2</v>
+      </c>
+      <c r="M179">
         <v>0.70553800854700699</v>
       </c>
-      <c r="M179">
+      <c r="N179">
         <v>2.3883330111856198</v>
       </c>
-      <c r="N179" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2011</v>
       </c>
@@ -8340,16 +8872,19 @@
         <v>7.6918437137483497</v>
       </c>
       <c r="L180">
+        <v>8.0927223993064706E-2</v>
+      </c>
+      <c r="M180">
         <v>0.347063490671773</v>
       </c>
-      <c r="M180">
+      <c r="N180">
         <v>2.1915220651306302</v>
       </c>
-      <c r="N180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2012</v>
       </c>
@@ -8384,16 +8919,19 @@
         <v>7.51002838375355</v>
       </c>
       <c r="L181">
+        <v>7.9772423823876101E-2</v>
+      </c>
+      <c r="M181">
         <v>0.14402386424316599</v>
       </c>
-      <c r="M181">
+      <c r="N181">
         <v>1.8401837208051699</v>
       </c>
-      <c r="N181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2013</v>
       </c>
@@ -8428,16 +8966,19 @@
         <v>5.2442656654690598</v>
       </c>
       <c r="L182">
+        <v>5.3548729331645901E-2</v>
+      </c>
+      <c r="M182">
         <v>0.68943066488361104</v>
       </c>
-      <c r="M182">
+      <c r="N182">
         <v>1.93101717268085</v>
       </c>
-      <c r="N182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2014</v>
       </c>
@@ -8472,16 +9013,19 @@
         <v>13.715816984705601</v>
       </c>
       <c r="L183">
+        <v>0.14726875269908399</v>
+      </c>
+      <c r="M183">
         <v>-1.48432707240498</v>
       </c>
-      <c r="M183">
+      <c r="N183">
         <v>4.17618158829998</v>
       </c>
-      <c r="N183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2015</v>
       </c>
@@ -8516,16 +9060,19 @@
         <v>6.71416198331187</v>
       </c>
       <c r="L184">
+        <v>0.13773303426158001</v>
+      </c>
+      <c r="M184">
         <v>0.216756041628903</v>
       </c>
-      <c r="M184">
+      <c r="N184">
         <v>2.3605762011770199</v>
       </c>
-      <c r="N184" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2016</v>
       </c>
@@ -8560,16 +9107,19 @@
         <v>6.8303840265009503</v>
       </c>
       <c r="L185">
+        <v>0.158014721448447</v>
+      </c>
+      <c r="M185">
         <v>-0.78060126677514496</v>
       </c>
-      <c r="M185">
+      <c r="N185">
         <v>2.51159325657953</v>
       </c>
-      <c r="N185" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2017</v>
       </c>
@@ -8604,16 +9154,19 @@
         <v>3.8226097072458098</v>
       </c>
       <c r="L186">
+        <v>7.5064717838064995E-2</v>
+      </c>
+      <c r="M186">
         <v>0.43017773788238201</v>
       </c>
-      <c r="M186">
+      <c r="N186">
         <v>2.39242384446657</v>
       </c>
-      <c r="N186" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2018</v>
       </c>
@@ -8648,16 +9201,19 @@
         <v>6.6740752890133104</v>
       </c>
       <c r="L187">
+        <v>0.103018293844512</v>
+      </c>
+      <c r="M187">
         <v>-1.2761438043204301</v>
       </c>
-      <c r="M187">
+      <c r="N187">
         <v>3.8538973886486501</v>
       </c>
-      <c r="N187" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2019</v>
       </c>
@@ -8692,16 +9248,19 @@
         <v>3.38570051505517</v>
       </c>
       <c r="L188">
+        <v>5.9403825799999102E-2</v>
+      </c>
+      <c r="M188">
         <v>0.406444278056171</v>
       </c>
-      <c r="M188">
+      <c r="N188">
         <v>2.7668714123007399</v>
       </c>
-      <c r="N188" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -8736,16 +9295,19 @@
         <v>10.660194338515399</v>
       </c>
       <c r="L189">
+        <v>0.27047100994449402</v>
+      </c>
+      <c r="M189">
         <v>-0.43875773630655102</v>
       </c>
-      <c r="M189">
+      <c r="N189">
         <v>3.1760814102609598</v>
       </c>
-      <c r="N189" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2021</v>
       </c>
@@ -8780,13 +9342,16 @@
         <v>5.0494495244531397</v>
       </c>
       <c r="L190">
+        <v>9.0963863133157505E-2</v>
+      </c>
+      <c r="M190">
         <v>0</v>
       </c>
-      <c r="M190">
+      <c r="N190">
         <v>1</v>
       </c>
-      <c r="N190" t="s">
-        <v>19</v>
+      <c r="O190" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
